--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="11730" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="     M A R Z O     2 0 2 3     " sheetId="1" r:id="rId1"/>
     <sheet name="    A B R I L     2 0 2 3      " sheetId="2" r:id="rId2"/>
     <sheet name="    M A Y O       2 0 2 3      " sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="    J U N I O      2 0 2 3     " sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -202,8 +203,66 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="72">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -411,6 +470,15 @@
   <si>
     <t>TOTAL PLAY</t>
   </si>
+  <si>
+    <t>BALANCE      ZAVALETA      V E R D U R A  S     J U N I O          2 0 2 3</t>
+  </si>
+  <si>
+    <t>sin baucher  de   $ 205.00</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +492,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +888,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1816,7 +1892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2280,6 +2356,96 @@
     <xf numFmtId="16" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2307,96 +2473,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2409,6 +2485,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3768,6 +3848,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BD9866-FF79-48A3-8125-274D02C358E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4819650" y="14754224"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB40F1F-8813-4BFC-8C98-C4B9398EBA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733925" y="14249400"/>
+          <a:ext cx="533400" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7705E016-15EF-48E9-8112-55956DB9A028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4819650" y="14754224"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFF9FBA-ADFD-4F21-8022-9D7FA8728028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="14230350"/>
+          <a:ext cx="1524000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF22E63-49BB-45F3-B7CF-F3196DA45995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7358063" y="13396910"/>
+          <a:ext cx="200026" cy="2057402"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB3AFF8-1821-4422-8C39-1F09F5802A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="15066125"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C60128-65EF-4D68-902C-E7D41384C4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4743450" y="15087600"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4063,31 +4569,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="250"/>
-      <c r="C1" s="252" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="251"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="249" t="s">
+      <c r="F2" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -4096,21 +4602,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="255"/>
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="256" t="s">
+      <c r="H3" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="256"/>
+      <c r="I3" s="268"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="241" t="s">
+      <c r="R3" s="271" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4123,14 +4629,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="243" t="s">
+      <c r="E4" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="244"/>
-      <c r="H4" s="245" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="246"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4140,11 +4646,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="247" t="s">
+      <c r="P4" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="242"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5974,11 +6480,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="257">
+      <c r="M45" s="269">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="266">
+      <c r="N45" s="248">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -6010,8 +6516,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="258"/>
-      <c r="N46" s="267"/>
+      <c r="M46" s="270"/>
+      <c r="N46" s="249"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -6103,29 +6609,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="268" t="s">
+      <c r="H51" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="269"/>
+      <c r="I51" s="251"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="270">
+      <c r="K51" s="252">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="271"/>
-      <c r="M51" s="272">
+      <c r="L51" s="253"/>
+      <c r="M51" s="254">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="273"/>
+      <c r="N51" s="255"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="279" t="s">
+      <c r="D52" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="279"/>
+      <c r="E52" s="261"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -6136,20 +6642,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="274"/>
-      <c r="E53" s="274"/>
+      <c r="D53" s="256"/>
+      <c r="E53" s="256"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="275" t="s">
+      <c r="I53" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="276"/>
-      <c r="K53" s="277">
+      <c r="J53" s="258"/>
+      <c r="K53" s="259">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="278"/>
+      <c r="L53" s="260"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -6180,11 +6686,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="259">
+      <c r="K55" s="241">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="260"/>
+      <c r="L55" s="242"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -6197,22 +6703,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="261" t="s">
+      <c r="D57" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="262"/>
+      <c r="E57" s="244"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="263" t="s">
+      <c r="I57" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="264"/>
-      <c r="K57" s="265">
+      <c r="J57" s="246"/>
+      <c r="K57" s="247">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="265"/>
+      <c r="L57" s="247"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -6337,6 +6843,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6349,16 +6865,6 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6404,31 +6910,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="250"/>
-      <c r="C1" s="252" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="251"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="249" t="s">
+      <c r="F2" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6439,21 +6945,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="255"/>
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="256" t="s">
+      <c r="H3" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="256"/>
+      <c r="I3" s="268"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="241" t="s">
+      <c r="R3" s="271" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6466,14 +6972,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="243" t="s">
+      <c r="E4" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="244"/>
-      <c r="H4" s="245" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="246"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -6483,11 +6989,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="247" t="s">
+      <c r="P4" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="242"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9026,11 +9532,11 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="257">
+      <c r="M63" s="269">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
-      <c r="N63" s="266">
+      <c r="N63" s="248">
         <f>SUM(N5:N48)</f>
         <v>46604</v>
       </c>
@@ -9062,8 +9568,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="258"/>
-      <c r="N64" s="267"/>
+      <c r="M64" s="270"/>
+      <c r="N64" s="249"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -9155,29 +9661,29 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="268" t="s">
+      <c r="H69" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="269"/>
+      <c r="I69" s="251"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="270">
+      <c r="K69" s="252">
         <f>I67+L67</f>
         <v>6435</v>
       </c>
-      <c r="L69" s="271"/>
-      <c r="M69" s="272">
+      <c r="L69" s="253"/>
+      <c r="M69" s="254">
         <f>N63+M63</f>
         <v>135236</v>
       </c>
-      <c r="N69" s="273"/>
+      <c r="N69" s="255"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="279" t="s">
+      <c r="D70" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="279"/>
+      <c r="E70" s="261"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
         <v>65323.966999999975</v>
@@ -9188,20 +9694,20 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="274"/>
-      <c r="E71" s="274"/>
+      <c r="D71" s="256"/>
+      <c r="E71" s="256"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="275" t="s">
+      <c r="I71" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="276"/>
-      <c r="K71" s="277">
+      <c r="J71" s="258"/>
+      <c r="K71" s="259">
         <f>F73+F74+F75</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L71" s="278"/>
+      <c r="L71" s="260"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
@@ -9232,11 +9738,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="259">
+      <c r="K73" s="241">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="260"/>
+      <c r="L73" s="242"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="148" t="s">
@@ -9249,22 +9755,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="261" t="s">
+      <c r="D75" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="262"/>
+      <c r="E75" s="244"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="263" t="s">
+      <c r="I75" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="264"/>
-      <c r="K75" s="265">
+      <c r="J75" s="246"/>
+      <c r="K75" s="247">
         <f>K71+K73</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L75" s="265"/>
+      <c r="L75" s="247"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -9389,6 +9895,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9399,18 +9917,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9426,8 +9932,8 @@
   </sheetPr>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9453,31 +9959,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="250"/>
-      <c r="C1" s="252" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="251"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="249" t="s">
+      <c r="F2" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -9488,21 +9994,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="255"/>
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="256" t="s">
+      <c r="H3" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="256"/>
+      <c r="I3" s="268"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="241" t="s">
+      <c r="R3" s="271" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9515,14 +10021,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="243" t="s">
+      <c r="E4" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="244"/>
-      <c r="H4" s="245" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="246"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9532,11 +10038,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="247" t="s">
+      <c r="P4" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="242"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -11848,11 +12354,11 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="257">
+      <c r="M56" s="269">
         <f>SUM(M5:M48)</f>
         <v>41580</v>
       </c>
-      <c r="N56" s="266">
+      <c r="N56" s="248">
         <f>SUM(N5:N48)</f>
         <v>50201</v>
       </c>
@@ -11884,8 +12390,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="258"/>
-      <c r="N57" s="267"/>
+      <c r="M57" s="270"/>
+      <c r="N57" s="249"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -11959,29 +12465,29 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="268" t="s">
+      <c r="H61" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="269"/>
+      <c r="I61" s="251"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="270">
+      <c r="K61" s="252">
         <f>I59+L59</f>
         <v>4723.5599999999995</v>
       </c>
-      <c r="L61" s="271"/>
-      <c r="M61" s="272">
+      <c r="L61" s="253"/>
+      <c r="M61" s="254">
         <f>N56+M56</f>
         <v>91781</v>
       </c>
-      <c r="N61" s="273"/>
+      <c r="N61" s="255"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="279" t="s">
+      <c r="D62" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="279"/>
+      <c r="E62" s="261"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
         <v>70157.13</v>
@@ -11992,20 +12498,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="274"/>
-      <c r="E63" s="274"/>
+      <c r="D63" s="256"/>
+      <c r="E63" s="256"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="275" t="s">
+      <c r="I63" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="276"/>
-      <c r="K63" s="277">
+      <c r="J63" s="258"/>
+      <c r="K63" s="259">
         <f>F65+F66+F67</f>
         <v>70157.13</v>
       </c>
-      <c r="L63" s="278"/>
+      <c r="L63" s="260"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -12036,11 +12542,11 @@
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="259">
+      <c r="K65" s="241">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="260"/>
+      <c r="L65" s="242"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -12053,22 +12559,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="261" t="s">
+      <c r="D67" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="262"/>
+      <c r="E67" s="244"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="263" t="s">
+      <c r="I67" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="264"/>
-      <c r="K67" s="265">
+      <c r="J67" s="246"/>
+      <c r="K67" s="247">
         <f>K63+K65</f>
         <v>70157.13</v>
       </c>
-      <c r="L67" s="265"/>
+      <c r="L67" s="247"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -12196,6 +12702,18 @@
     <sortCondition ref="B38:B56"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12206,18 +12724,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12227,121 +12733,2469 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="132" customWidth="1"/>
+    <col min="3" max="3" width="16" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="217" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="285" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" style="235" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>500</v>
-      </c>
-      <c r="E4">
-        <v>202</v>
-      </c>
-      <c r="F4" s="131">
-        <f>D4*E4</f>
-        <v>101000</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5">
-        <v>72</v>
-      </c>
-      <c r="F5" s="131">
-        <f t="shared" ref="F5:F11" si="0">D5*E5</f>
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
+    </row>
+    <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="263"/>
+      <c r="C2" s="4"/>
+      <c r="F2" s="279" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
+      <c r="K2" s="197" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="177"/>
+      <c r="M2" s="196">
+        <v>45019</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="268" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="268"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="6"/>
+      <c r="R3" s="271" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="218"/>
+      <c r="E4" s="273" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="276"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="131">
+      <c r="N4" s="169" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="277" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="21">
+        <v>45078</v>
+      </c>
+      <c r="C5" s="22">
+        <v>4448</v>
+      </c>
+      <c r="D5" s="194" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>45078</v>
+      </c>
+      <c r="F5" s="25">
+        <v>7929</v>
+      </c>
+      <c r="G5" s="205"/>
+      <c r="H5" s="27">
+        <v>45078</v>
+      </c>
+      <c r="I5" s="28">
+        <v>231</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="30">
+        <v>1895</v>
+      </c>
+      <c r="N5" s="31">
+        <v>1355</v>
+      </c>
+      <c r="O5" s="284" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="33">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>7929</v>
+      </c>
+      <c r="Q5" s="34">
+        <f t="shared" ref="Q5:Q56" si="0">P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="48">
+        <v>0</v>
+      </c>
+      <c r="S5" s="236"/>
+      <c r="T5" s="229" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21">
+        <v>45079</v>
+      </c>
+      <c r="C6" s="22">
+        <v>3843</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>45079</v>
+      </c>
+      <c r="F6" s="25">
+        <v>8094</v>
+      </c>
+      <c r="G6" s="205"/>
+      <c r="H6" s="27">
+        <v>45079</v>
+      </c>
+      <c r="I6" s="28">
+        <v>60</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="30">
+        <v>1987</v>
+      </c>
+      <c r="N6" s="31">
+        <v>2092</v>
+      </c>
+      <c r="O6" s="284" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="33">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>7982</v>
+      </c>
+      <c r="Q6" s="232">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="131">
+        <v>-112</v>
+      </c>
+      <c r="R6" s="48">
+        <v>0</v>
+      </c>
+      <c r="S6" s="237"/>
+      <c r="T6" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21">
+        <v>45080</v>
+      </c>
+      <c r="C7" s="22">
+        <v>3400</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>45080</v>
+      </c>
+      <c r="F7" s="25">
+        <v>5237</v>
+      </c>
+      <c r="G7" s="205"/>
+      <c r="H7" s="27">
+        <v>45080</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="30">
+        <v>70</v>
+      </c>
+      <c r="N7" s="31">
+        <f>205+1562</f>
+        <v>1767</v>
+      </c>
+      <c r="O7" s="284" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="33">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>5237</v>
+      </c>
+      <c r="Q7" s="34">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="131">
+        <v>0</v>
+      </c>
+      <c r="R7" s="48">
+        <v>0</v>
+      </c>
+      <c r="S7" s="237" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21">
+        <v>45081</v>
+      </c>
+      <c r="C8" s="22">
+        <v>2746</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <v>45081</v>
+      </c>
+      <c r="F8" s="25">
+        <v>7008</v>
+      </c>
+      <c r="G8" s="205"/>
+      <c r="H8" s="27">
+        <v>45081</v>
+      </c>
+      <c r="I8" s="28">
+        <v>214</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="30">
+        <v>1750</v>
+      </c>
+      <c r="N8" s="31">
+        <v>2298</v>
+      </c>
+      <c r="O8" s="284"/>
+      <c r="P8" s="33">
+        <f t="shared" ref="P8:Q56" si="1">N8+M8+L8+I8+C8</f>
+        <v>7008</v>
+      </c>
+      <c r="Q8" s="34">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="131">
+        <v>0</v>
+      </c>
+      <c r="R8" s="48">
+        <v>0</v>
+      </c>
+      <c r="S8" s="237"/>
+      <c r="T8" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21">
+        <v>45082</v>
+      </c>
+      <c r="C9" s="22">
+        <v>6197</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>45082</v>
+      </c>
+      <c r="F9" s="25">
+        <v>12580</v>
+      </c>
+      <c r="G9" s="205"/>
+      <c r="H9" s="27">
+        <v>45082</v>
+      </c>
+      <c r="I9" s="28">
+        <v>260</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="30">
+        <v>2507</v>
+      </c>
+      <c r="N9" s="31">
+        <v>3458</v>
+      </c>
+      <c r="O9" s="284"/>
+      <c r="P9" s="33">
+        <f t="shared" si="1"/>
+        <v>12422</v>
+      </c>
+      <c r="Q9" s="232">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="131">
+        <v>-158</v>
+      </c>
+      <c r="R9" s="48">
+        <v>0</v>
+      </c>
+      <c r="S9" s="237"/>
+      <c r="T9" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21">
+        <v>45083</v>
+      </c>
+      <c r="C10" s="22">
+        <v>5095</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>45083</v>
+      </c>
+      <c r="F10" s="25">
+        <v>8818</v>
+      </c>
+      <c r="G10" s="205"/>
+      <c r="H10" s="27">
+        <v>45083</v>
+      </c>
+      <c r="I10" s="28">
+        <v>340</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="30">
+        <v>1015</v>
+      </c>
+      <c r="N10" s="31">
+        <v>2368</v>
+      </c>
+      <c r="O10" s="284"/>
+      <c r="P10" s="33">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>8818</v>
+      </c>
+      <c r="Q10" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="131">
-        <f>SUM(F4:F11)</f>
-        <v>115970</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="4:6" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="R10" s="48">
+        <v>0</v>
+      </c>
+      <c r="S10" s="237"/>
+      <c r="T10" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21">
+        <v>45084</v>
+      </c>
+      <c r="C11" s="22">
+        <v>3809</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>45084</v>
+      </c>
+      <c r="F11" s="25">
+        <v>5280</v>
+      </c>
+      <c r="G11" s="205"/>
+      <c r="H11" s="27">
+        <v>45084</v>
+      </c>
+      <c r="I11" s="28">
+        <v>60</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="30">
+        <v>293</v>
+      </c>
+      <c r="N11" s="31">
+        <v>1118</v>
+      </c>
+      <c r="O11" s="284"/>
+      <c r="P11" s="33">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>5280</v>
+      </c>
+      <c r="Q11" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="48">
+        <v>0</v>
+      </c>
+      <c r="S11" s="237"/>
+      <c r="T11" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21">
+        <v>45085</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="24">
+        <v>45085</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="27">
+        <v>45085</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="30">
+        <v>0</v>
+      </c>
+      <c r="N12" s="31">
+        <v>0</v>
+      </c>
+      <c r="O12" s="284"/>
+      <c r="P12" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="48">
+        <v>0</v>
+      </c>
+      <c r="S12" s="237"/>
+      <c r="T12" s="34"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21">
+        <v>45086</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="24">
+        <v>45086</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="27">
+        <v>45086</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="30">
+        <v>0</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0</v>
+      </c>
+      <c r="O13" s="284"/>
+      <c r="P13" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="48">
+        <v>0</v>
+      </c>
+      <c r="S13" s="237"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21">
+        <v>45087</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="24">
+        <v>45087</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="27">
+        <v>45087</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="31">
+        <v>0</v>
+      </c>
+      <c r="O14" s="284"/>
+      <c r="P14" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="48">
+        <v>0</v>
+      </c>
+      <c r="S14" s="237"/>
+      <c r="T14" s="34"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21">
+        <v>45088</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="24">
+        <v>45088</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="27">
+        <v>45088</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="31">
+        <v>0</v>
+      </c>
+      <c r="O15" s="284"/>
+      <c r="P15" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="48">
+        <v>0</v>
+      </c>
+      <c r="S15" s="237"/>
+      <c r="T15" s="34"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21">
+        <v>45089</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="24">
+        <v>45089</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="27">
+        <v>45089</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="N16" s="31">
+        <v>0</v>
+      </c>
+      <c r="O16" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="48">
+        <v>0</v>
+      </c>
+      <c r="S16" s="237"/>
+      <c r="T16" s="34"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21">
+        <v>45090</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="24">
+        <v>45090</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="27">
+        <v>45090</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="30">
+        <v>0</v>
+      </c>
+      <c r="N17" s="31">
+        <v>0</v>
+      </c>
+      <c r="O17" s="284"/>
+      <c r="P17" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="48">
+        <v>0</v>
+      </c>
+      <c r="S17" s="237"/>
+      <c r="T17" s="34"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21">
+        <v>45091</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="24">
+        <v>45091</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="27">
+        <v>45091</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0</v>
+      </c>
+      <c r="O18" s="284"/>
+      <c r="P18" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="48">
+        <v>0</v>
+      </c>
+      <c r="S18" s="237"/>
+      <c r="T18" s="34"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21">
+        <v>45092</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="24">
+        <v>45092</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="27">
+        <v>45092</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0</v>
+      </c>
+      <c r="O19" s="284"/>
+      <c r="P19" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="48">
+        <v>0</v>
+      </c>
+      <c r="S19" s="237"/>
+      <c r="T19" s="34"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21">
+        <v>45093</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="24">
+        <v>45093</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="27">
+        <v>45093</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="30">
+        <v>0</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0</v>
+      </c>
+      <c r="O20" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="48">
+        <v>0</v>
+      </c>
+      <c r="S20" s="237"/>
+      <c r="T20" s="34"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21">
+        <v>45094</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="24">
+        <v>45094</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="27">
+        <v>45094</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="209"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="30">
+        <v>0</v>
+      </c>
+      <c r="N21" s="31">
+        <v>0</v>
+      </c>
+      <c r="O21" s="284"/>
+      <c r="P21" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="48">
+        <v>0</v>
+      </c>
+      <c r="S21" s="238"/>
+      <c r="T21" s="34"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21">
+        <v>45095</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="24">
+        <v>45095</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="27">
+        <v>45095</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="30">
+        <v>0</v>
+      </c>
+      <c r="N22" s="31">
+        <v>0</v>
+      </c>
+      <c r="O22" s="284"/>
+      <c r="P22" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="48">
+        <v>0</v>
+      </c>
+      <c r="S22" s="237"/>
+      <c r="T22" s="34"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21">
+        <v>45096</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="24">
+        <v>45096</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="27">
+        <v>45096</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="30">
+        <v>0</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0</v>
+      </c>
+      <c r="O23" s="284"/>
+      <c r="P23" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="48">
+        <v>0</v>
+      </c>
+      <c r="S23" s="237"/>
+      <c r="T23" s="34"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21">
+        <v>45097</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="24">
+        <v>45097</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="27">
+        <v>45097</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="30">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <v>0</v>
+      </c>
+      <c r="O24" s="284"/>
+      <c r="P24" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="48">
+        <v>0</v>
+      </c>
+      <c r="S24" s="237"/>
+      <c r="T24" s="34"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21">
+        <v>45098</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="24">
+        <v>45098</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="27">
+        <v>45098</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="30">
+        <v>0</v>
+      </c>
+      <c r="N25" s="31">
+        <v>0</v>
+      </c>
+      <c r="O25" s="284"/>
+      <c r="P25" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="48">
+        <v>0</v>
+      </c>
+      <c r="S25" s="237"/>
+      <c r="T25" s="34"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21">
+        <v>45099</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="24">
+        <v>45099</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="27">
+        <v>45099</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="31">
+        <v>0</v>
+      </c>
+      <c r="O26" s="284"/>
+      <c r="P26" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="48">
+        <v>0</v>
+      </c>
+      <c r="S26" s="237"/>
+      <c r="T26" s="34"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21">
+        <v>45100</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="24">
+        <v>45100</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="27">
+        <v>45100</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="30">
+        <v>0</v>
+      </c>
+      <c r="N27" s="31">
+        <v>0</v>
+      </c>
+      <c r="O27" s="284" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="48">
+        <v>0</v>
+      </c>
+      <c r="S27" s="237"/>
+      <c r="T27" s="34"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21">
+        <v>45101</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="24">
+        <v>45101</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="27">
+        <v>45101</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="30">
+        <v>0</v>
+      </c>
+      <c r="N28" s="31">
+        <v>0</v>
+      </c>
+      <c r="O28" s="284"/>
+      <c r="P28" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="48">
+        <v>0</v>
+      </c>
+      <c r="S28" s="237"/>
+      <c r="T28" s="34"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21">
+        <v>45102</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="24">
+        <v>45102</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="27">
+        <v>45102</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="30">
+        <v>0</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0</v>
+      </c>
+      <c r="O29" s="284"/>
+      <c r="P29" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="48">
+        <v>0</v>
+      </c>
+      <c r="S29" s="237"/>
+      <c r="T29" s="34"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21">
+        <v>45103</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="24">
+        <v>45103</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="27">
+        <v>45103</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="31">
+        <v>0</v>
+      </c>
+      <c r="O30" s="284"/>
+      <c r="P30" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="48">
+        <v>0</v>
+      </c>
+      <c r="S30" s="237"/>
+      <c r="T30" s="34"/>
+    </row>
+    <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21">
+        <v>45104</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="24">
+        <v>45104</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="27">
+        <v>45104</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="210"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="30">
+        <v>0</v>
+      </c>
+      <c r="N31" s="31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="284"/>
+      <c r="P31" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="48">
+        <v>0</v>
+      </c>
+      <c r="S31" s="237"/>
+      <c r="T31" s="34"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21">
+        <v>45105</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="24">
+        <v>45105</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="27">
+        <v>45105</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="30">
+        <v>0</v>
+      </c>
+      <c r="N32" s="31">
+        <v>0</v>
+      </c>
+      <c r="O32" s="284"/>
+      <c r="P32" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="48">
+        <v>0</v>
+      </c>
+      <c r="S32" s="237"/>
+      <c r="T32" s="34"/>
+    </row>
+    <row r="33" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21">
+        <v>45106</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="24">
+        <v>45106</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="27">
+        <v>45106</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="210"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="30">
+        <v>0</v>
+      </c>
+      <c r="N33" s="31">
+        <v>0</v>
+      </c>
+      <c r="O33" s="284"/>
+      <c r="P33" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="48">
+        <v>0</v>
+      </c>
+      <c r="S33" s="237"/>
+      <c r="T33" s="230"/>
+    </row>
+    <row r="34" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21">
+        <v>45107</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="24">
+        <v>45107</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="27">
+        <v>45107</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="211"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="30">
+        <v>0</v>
+      </c>
+      <c r="N34" s="31">
+        <v>0</v>
+      </c>
+      <c r="O34" s="284"/>
+      <c r="P34" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="48">
+        <v>0</v>
+      </c>
+      <c r="S34" s="237"/>
+    </row>
+    <row r="35" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="30">
+        <v>0</v>
+      </c>
+      <c r="N35" s="31">
+        <v>0</v>
+      </c>
+      <c r="O35" s="284"/>
+      <c r="P35" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="48">
+        <v>0</v>
+      </c>
+      <c r="S35" s="237"/>
+    </row>
+    <row r="36" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="212"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="30">
+        <v>0</v>
+      </c>
+      <c r="N36" s="31">
+        <v>0</v>
+      </c>
+      <c r="O36" s="284"/>
+      <c r="P36" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="48">
+        <v>0</v>
+      </c>
+      <c r="S36" s="239"/>
+    </row>
+    <row r="37" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="204"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="214"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="30">
+        <v>0</v>
+      </c>
+      <c r="N37" s="31">
+        <v>0</v>
+      </c>
+      <c r="O37" s="284"/>
+      <c r="P37" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="48">
+        <v>0</v>
+      </c>
+      <c r="S37" s="240"/>
+    </row>
+    <row r="38" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="210"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="30">
+        <v>0</v>
+      </c>
+      <c r="N38" s="31">
+        <v>0</v>
+      </c>
+      <c r="O38" s="284"/>
+      <c r="P38" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="48">
+        <v>0</v>
+      </c>
+      <c r="S38" s="240"/>
+    </row>
+    <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="30">
+        <v>0</v>
+      </c>
+      <c r="N39" s="31">
+        <v>0</v>
+      </c>
+      <c r="O39" s="284"/>
+      <c r="P39" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="48"/>
+      <c r="S39" s="240"/>
+    </row>
+    <row r="40" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="210"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="30">
+        <v>0</v>
+      </c>
+      <c r="N40" s="31">
+        <v>0</v>
+      </c>
+      <c r="O40" s="284"/>
+      <c r="P40" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="48"/>
+      <c r="S40" s="240"/>
+    </row>
+    <row r="41" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="210"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="30">
+        <v>0</v>
+      </c>
+      <c r="N41" s="31">
+        <v>0</v>
+      </c>
+      <c r="O41" s="284"/>
+      <c r="P41" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="48"/>
+      <c r="S41" s="240"/>
+    </row>
+    <row r="42" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="201"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="210"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="30">
+        <v>0</v>
+      </c>
+      <c r="N42" s="31">
+        <v>0</v>
+      </c>
+      <c r="O42" s="284"/>
+      <c r="P42" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="48"/>
+      <c r="S42" s="240"/>
+    </row>
+    <row r="43" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="205"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="210"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="30">
+        <v>0</v>
+      </c>
+      <c r="N43" s="31">
+        <v>0</v>
+      </c>
+      <c r="O43" s="284"/>
+      <c r="P43" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="48"/>
+      <c r="S43" s="240"/>
+    </row>
+    <row r="44" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="204"/>
+      <c r="C44" s="201"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="210"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="30">
+        <v>0</v>
+      </c>
+      <c r="N44" s="31">
+        <v>0</v>
+      </c>
+      <c r="O44" s="284"/>
+      <c r="P44" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="48"/>
+      <c r="S44" s="240"/>
+    </row>
+    <row r="45" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="210"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="30">
+        <v>0</v>
+      </c>
+      <c r="N45" s="31">
+        <v>0</v>
+      </c>
+      <c r="O45" s="284"/>
+      <c r="P45" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="48"/>
+      <c r="S45" s="240"/>
+    </row>
+    <row r="46" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="204"/>
+      <c r="C46" s="201"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="210"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="30">
+        <v>0</v>
+      </c>
+      <c r="N46" s="31">
+        <v>0</v>
+      </c>
+      <c r="O46" s="284"/>
+      <c r="P46" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="48"/>
+      <c r="S46" s="240"/>
+    </row>
+    <row r="47" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="204"/>
+      <c r="C47" s="201"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="205"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="210"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="30">
+        <v>0</v>
+      </c>
+      <c r="N47" s="31">
+        <v>0</v>
+      </c>
+      <c r="O47" s="284"/>
+      <c r="P47" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="48"/>
+      <c r="S47" s="240"/>
+    </row>
+    <row r="48" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="204"/>
+      <c r="C48" s="201"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="210"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="30">
+        <v>0</v>
+      </c>
+      <c r="N48" s="31">
+        <v>0</v>
+      </c>
+      <c r="O48" s="284"/>
+      <c r="P48" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="48"/>
+      <c r="S48" s="240"/>
+    </row>
+    <row r="49" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
+      <c r="B49" s="204"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="205"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="215"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="30">
+        <v>0</v>
+      </c>
+      <c r="N49" s="31">
+        <v>0</v>
+      </c>
+      <c r="O49" s="284"/>
+      <c r="P49" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="48">
+        <v>0</v>
+      </c>
+      <c r="S49" s="240"/>
+    </row>
+    <row r="50" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="201"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="216"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="30">
+        <v>0</v>
+      </c>
+      <c r="N50" s="31">
+        <v>0</v>
+      </c>
+      <c r="O50" s="284"/>
+      <c r="P50" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="48">
+        <v>0</v>
+      </c>
+      <c r="S50" s="240"/>
+    </row>
+    <row r="51" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="20"/>
+      <c r="B51" s="204"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="216"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="30">
+        <v>0</v>
+      </c>
+      <c r="N51" s="31">
+        <v>0</v>
+      </c>
+      <c r="O51" s="284"/>
+      <c r="P51" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="48">
+        <v>0</v>
+      </c>
+      <c r="S51" s="240"/>
+    </row>
+    <row r="52" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="204"/>
+      <c r="C52" s="201"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="216"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="30">
+        <v>0</v>
+      </c>
+      <c r="N52" s="31">
+        <v>0</v>
+      </c>
+      <c r="O52" s="284"/>
+      <c r="P52" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="203">
+        <v>0</v>
+      </c>
+      <c r="S52" s="240"/>
+    </row>
+    <row r="53" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="204"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="216"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="30">
+        <v>0</v>
+      </c>
+      <c r="N53" s="31">
+        <v>0</v>
+      </c>
+      <c r="O53" s="284"/>
+      <c r="P53" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="202"/>
+      <c r="S53" s="240"/>
+    </row>
+    <row r="54" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="20"/>
+      <c r="B54" s="204"/>
+      <c r="C54" s="201"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="216"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="30">
+        <v>0</v>
+      </c>
+      <c r="N54" s="31">
+        <v>0</v>
+      </c>
+      <c r="O54" s="284"/>
+      <c r="P54" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="202"/>
+      <c r="S54" s="240"/>
+    </row>
+    <row r="55" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="28">
+        <v>0</v>
+      </c>
+      <c r="J55" s="72"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="94">
+        <v>0</v>
+      </c>
+      <c r="N55" s="31">
+        <v>0</v>
+      </c>
+      <c r="O55" s="284"/>
+      <c r="P55" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="13">
+        <v>0</v>
+      </c>
+      <c r="S55" s="240"/>
+    </row>
+    <row r="56" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28">
+        <v>0</v>
+      </c>
+      <c r="J56" s="72"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="269">
+        <f>SUM(M5:M48)</f>
+        <v>9517</v>
+      </c>
+      <c r="N56" s="248">
+        <f>SUM(N5:N48)</f>
+        <v>14456</v>
+      </c>
+      <c r="P56" s="100">
+        <f t="shared" si="1"/>
+        <v>23973</v>
+      </c>
+      <c r="Q56" s="100">
+        <f t="shared" si="1"/>
+        <v>23973</v>
+      </c>
+      <c r="R56" s="101">
+        <f>SUM(R5:R48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28">
+        <v>0</v>
+      </c>
+      <c r="J57" s="72"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="270"/>
+      <c r="N57" s="249"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="22">
+        <v>0</v>
+      </c>
+      <c r="D58" s="115"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="106"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="31"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="9"/>
+    </row>
+    <row r="59" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="122">
+        <f>SUM(C5:C58)</f>
+        <v>29538</v>
+      </c>
+      <c r="D59" s="219"/>
+      <c r="E59" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="125">
+        <f>SUM(F5:F58)</f>
+        <v>54946</v>
+      </c>
+      <c r="G59" s="123"/>
+      <c r="H59" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="127">
+        <f>SUM(I5:I58)</f>
+        <v>1165</v>
+      </c>
+      <c r="J59" s="128"/>
+      <c r="K59" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="130">
+        <f>SUM(L5:L58)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="9"/>
+    </row>
+    <row r="60" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P60" s="96"/>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="133"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="1"/>
+      <c r="H61" s="250" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="251"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="252">
+        <f>I59+L59</f>
+        <v>1165</v>
+      </c>
+      <c r="L61" s="253"/>
+      <c r="M61" s="254">
+        <f>N56+M56</f>
+        <v>23973</v>
+      </c>
+      <c r="N61" s="255"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D62" s="261" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="261"/>
+      <c r="F62" s="136">
+        <f>F59-K61-C59</f>
+        <v>24243</v>
+      </c>
+      <c r="I62" s="137"/>
+      <c r="J62" s="138"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="9"/>
+    </row>
+    <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D63" s="256"/>
+      <c r="E63" s="256"/>
+      <c r="F63" s="131">
+        <v>0</v>
+      </c>
+      <c r="I63" s="257" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="258"/>
+      <c r="K63" s="259">
+        <f>F65+F66+F67</f>
+        <v>24243</v>
+      </c>
+      <c r="L63" s="260"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="9"/>
+    </row>
+    <row r="64" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="220"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="141">
+        <v>0</v>
+      </c>
+      <c r="I64" s="142"/>
+      <c r="J64" s="143"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="145"/>
+    </row>
+    <row r="65" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="131">
+        <f>SUM(F62:F64)</f>
+        <v>24243</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="146" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="147"/>
+      <c r="K65" s="241">
+        <f>-C4</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="242"/>
+    </row>
+    <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="221" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="133"/>
+      <c r="F66" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="150"/>
+      <c r="D67" s="243" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="244"/>
+      <c r="F67" s="151">
+        <v>0</v>
+      </c>
+      <c r="I67" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="246"/>
+      <c r="K67" s="247">
+        <f>K63+K65</f>
+        <v>24243</v>
+      </c>
+      <c r="L67" s="247"/>
+    </row>
+    <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C68" s="152"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="155"/>
+      <c r="J68" s="156"/>
+    </row>
+    <row r="69" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="157"/>
+      <c r="J69" s="157"/>
+      <c r="K69" s="158"/>
+      <c r="L69" s="158"/>
+    </row>
+    <row r="70" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="159"/>
+      <c r="C70" s="160"/>
+      <c r="D70" s="222"/>
+      <c r="E70" s="96"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="158"/>
+      <c r="L70" s="158"/>
+      <c r="M70" s="162"/>
+      <c r="N70" s="133"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="159"/>
+      <c r="C71" s="163"/>
+      <c r="E71" s="96"/>
+      <c r="M71" s="162"/>
+      <c r="N71" s="133"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="159"/>
+      <c r="C72" s="163"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="164"/>
+      <c r="L72" s="165"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="159"/>
+      <c r="C73" s="163"/>
+      <c r="E73" s="96"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="159"/>
+      <c r="C74" s="163"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="166"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E75" s="167"/>
+      <c r="F75" s="96"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E76" s="167"/>
+      <c r="F76" s="96"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E77" s="167"/>
+      <c r="F77" s="96"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E78" s="167"/>
+      <c r="F78" s="96"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E79" s="167"/>
+      <c r="F79" s="96"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E80" s="167"/>
+      <c r="F80" s="96"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E81" s="167"/>
+      <c r="F81" s="96"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E82" s="167"/>
+      <c r="F82" s="96"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E83" s="167"/>
+      <c r="F83" s="96"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E84" s="167"/>
+      <c r="F84" s="96"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E85" s="167"/>
+      <c r="F85" s="96"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E86" s="167"/>
+      <c r="F86" s="96"/>
+    </row>
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F87" s="166"/>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F88" s="166"/>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F89" s="166"/>
+    </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C6"/>
   <sheetViews>
@@ -12376,7 +15230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="73">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
   </si>
 </sst>
 </file>
@@ -2356,6 +2359,64 @@
     <xf numFmtId="16" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2419,60 +2480,6 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2485,10 +2492,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4569,31 +4572,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="263"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="279" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -4602,21 +4605,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4629,14 +4632,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4646,11 +4649,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6480,11 +6483,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="269">
+      <c r="M45" s="259">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="248">
+      <c r="N45" s="268">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -6516,8 +6519,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="270"/>
-      <c r="N46" s="249"/>
+      <c r="M46" s="260"/>
+      <c r="N46" s="269"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -6609,29 +6612,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="250" t="s">
+      <c r="H51" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="251"/>
+      <c r="I51" s="271"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="252">
+      <c r="K51" s="272">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="253"/>
-      <c r="M51" s="254">
+      <c r="L51" s="273"/>
+      <c r="M51" s="274">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="255"/>
+      <c r="N51" s="275"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="261" t="s">
+      <c r="D52" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="261"/>
+      <c r="E52" s="281"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -6642,20 +6645,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="256"/>
-      <c r="E53" s="256"/>
+      <c r="D53" s="276"/>
+      <c r="E53" s="276"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="257" t="s">
+      <c r="I53" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="258"/>
-      <c r="K53" s="259">
+      <c r="J53" s="278"/>
+      <c r="K53" s="279">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="260"/>
+      <c r="L53" s="280"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -6686,11 +6689,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="241">
+      <c r="K55" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="242"/>
+      <c r="L55" s="262"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -6703,22 +6706,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="243" t="s">
+      <c r="D57" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="244"/>
+      <c r="E57" s="264"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="245" t="s">
+      <c r="I57" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="246"/>
-      <c r="K57" s="247">
+      <c r="J57" s="266"/>
+      <c r="K57" s="267">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="247"/>
+      <c r="L57" s="267"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -6843,16 +6846,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6865,6 +6858,16 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6910,31 +6913,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="263"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="279" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6945,21 +6948,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6972,14 +6975,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -6989,11 +6992,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9532,11 +9535,11 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="269">
+      <c r="M63" s="259">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
-      <c r="N63" s="248">
+      <c r="N63" s="268">
         <f>SUM(N5:N48)</f>
         <v>46604</v>
       </c>
@@ -9568,8 +9571,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="270"/>
-      <c r="N64" s="249"/>
+      <c r="M64" s="260"/>
+      <c r="N64" s="269"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -9661,29 +9664,29 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="250" t="s">
+      <c r="H69" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="251"/>
+      <c r="I69" s="271"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="252">
+      <c r="K69" s="272">
         <f>I67+L67</f>
         <v>6435</v>
       </c>
-      <c r="L69" s="253"/>
-      <c r="M69" s="254">
+      <c r="L69" s="273"/>
+      <c r="M69" s="274">
         <f>N63+M63</f>
         <v>135236</v>
       </c>
-      <c r="N69" s="255"/>
+      <c r="N69" s="275"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="261" t="s">
+      <c r="D70" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="261"/>
+      <c r="E70" s="281"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
         <v>65323.966999999975</v>
@@ -9694,20 +9697,20 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="256"/>
-      <c r="E71" s="256"/>
+      <c r="D71" s="276"/>
+      <c r="E71" s="276"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="257" t="s">
+      <c r="I71" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="258"/>
-      <c r="K71" s="259">
+      <c r="J71" s="278"/>
+      <c r="K71" s="279">
         <f>F73+F74+F75</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L71" s="260"/>
+      <c r="L71" s="280"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
@@ -9738,11 +9741,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="241">
+      <c r="K73" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="242"/>
+      <c r="L73" s="262"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="148" t="s">
@@ -9755,22 +9758,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="243" t="s">
+      <c r="D75" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="244"/>
+      <c r="E75" s="264"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="245" t="s">
+      <c r="I75" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="246"/>
-      <c r="K75" s="247">
+      <c r="J75" s="266"/>
+      <c r="K75" s="267">
         <f>K71+K73</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L75" s="247"/>
+      <c r="L75" s="267"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -9895,18 +9898,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9917,6 +9908,18 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9959,31 +9962,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="263"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="279" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -9994,21 +9997,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10021,14 +10024,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10038,11 +10041,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -12354,11 +12357,11 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="269">
+      <c r="M56" s="259">
         <f>SUM(M5:M48)</f>
         <v>41580</v>
       </c>
-      <c r="N56" s="248">
+      <c r="N56" s="268">
         <f>SUM(N5:N48)</f>
         <v>50201</v>
       </c>
@@ -12390,8 +12393,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="270"/>
-      <c r="N57" s="249"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="269"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -12465,29 +12468,29 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="250" t="s">
+      <c r="H61" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="251"/>
+      <c r="I61" s="271"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="252">
+      <c r="K61" s="272">
         <f>I59+L59</f>
         <v>4723.5599999999995</v>
       </c>
-      <c r="L61" s="253"/>
-      <c r="M61" s="254">
+      <c r="L61" s="273"/>
+      <c r="M61" s="274">
         <f>N56+M56</f>
         <v>91781</v>
       </c>
-      <c r="N61" s="255"/>
+      <c r="N61" s="275"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="261" t="s">
+      <c r="D62" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="261"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
         <v>70157.13</v>
@@ -12498,20 +12501,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="256"/>
-      <c r="E63" s="256"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="276"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="257" t="s">
+      <c r="I63" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="258"/>
-      <c r="K63" s="259">
+      <c r="J63" s="278"/>
+      <c r="K63" s="279">
         <f>F65+F66+F67</f>
         <v>70157.13</v>
       </c>
-      <c r="L63" s="260"/>
+      <c r="L63" s="280"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -12542,11 +12545,11 @@
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="241">
+      <c r="K65" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="242"/>
+      <c r="L65" s="262"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -12559,22 +12562,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="243" t="s">
+      <c r="D67" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="244"/>
+      <c r="E67" s="264"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="245" t="s">
+      <c r="I67" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="246"/>
-      <c r="K67" s="247">
+      <c r="J67" s="266"/>
+      <c r="K67" s="267">
         <f>K63+K65</f>
         <v>70157.13</v>
       </c>
-      <c r="L67" s="247"/>
+      <c r="L67" s="267"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -12702,18 +12705,6 @@
     <sortCondition ref="B38:B56"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12724,6 +12715,18 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12740,7 +12743,7 @@
   <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12757,7 +12760,7 @@
     <col min="12" max="12" width="14.5703125" style="4" customWidth="1"/>
     <col min="13" max="13" width="18.140625" style="5" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="285" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="242" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.140625" customWidth="1"/>
     <col min="18" max="18" width="23.5703125" style="1" hidden="1" customWidth="1"/>
@@ -12766,31 +12769,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="263"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="279" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -12801,21 +12804,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12828,14 +12831,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12845,11 +12848,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -12886,7 +12889,7 @@
       <c r="N5" s="31">
         <v>1355</v>
       </c>
-      <c r="O5" s="284" t="s">
+      <c r="O5" s="241" t="s">
         <v>71</v>
       </c>
       <c r="P5" s="33">
@@ -12894,7 +12897,7 @@
         <v>7929</v>
       </c>
       <c r="Q5" s="34">
-        <f t="shared" ref="Q5:Q56" si="0">P5-F5</f>
+        <f t="shared" ref="Q5:Q55" si="0">P5-F5</f>
         <v>0</v>
       </c>
       <c r="R5" s="48">
@@ -12938,7 +12941,7 @@
       <c r="N6" s="31">
         <v>2092</v>
       </c>
-      <c r="O6" s="284" t="s">
+      <c r="O6" s="241" t="s">
         <v>71</v>
       </c>
       <c r="P6" s="33">
@@ -12991,7 +12994,7 @@
         <f>205+1562</f>
         <v>1767</v>
       </c>
-      <c r="O7" s="284" t="s">
+      <c r="O7" s="241" t="s">
         <v>71</v>
       </c>
       <c r="P7" s="33">
@@ -13045,7 +13048,7 @@
       <c r="N8" s="31">
         <v>2298</v>
       </c>
-      <c r="O8" s="284"/>
+      <c r="O8" s="241"/>
       <c r="P8" s="33">
         <f t="shared" ref="P8:Q56" si="1">N8+M8+L8+I8+C8</f>
         <v>7008</v>
@@ -13095,7 +13098,7 @@
       <c r="N9" s="31">
         <v>3458</v>
       </c>
-      <c r="O9" s="284"/>
+      <c r="O9" s="241"/>
       <c r="P9" s="33">
         <f t="shared" si="1"/>
         <v>12422</v>
@@ -13145,7 +13148,7 @@
       <c r="N10" s="31">
         <v>2368</v>
       </c>
-      <c r="O10" s="284"/>
+      <c r="O10" s="241"/>
       <c r="P10" s="33">
         <f>N10+M10+L10+I10+C10</f>
         <v>8818</v>
@@ -13198,7 +13201,7 @@
       <c r="N11" s="31">
         <v>1118</v>
       </c>
-      <c r="O11" s="284"/>
+      <c r="O11" s="241"/>
       <c r="P11" s="33">
         <f>N11+M11+L11+I11+C11</f>
         <v>5280</v>
@@ -13220,30 +13223,38 @@
       <c r="B12" s="21">
         <v>45085</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="22">
+        <v>2986</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E12" s="24">
         <v>45085</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25">
+        <v>6495</v>
+      </c>
       <c r="G12" s="205"/>
       <c r="H12" s="27">
         <v>45085</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="28">
+        <v>60</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="49"/>
       <c r="L12" s="39"/>
       <c r="M12" s="30">
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="N12" s="31">
-        <v>0</v>
-      </c>
-      <c r="O12" s="284"/>
+        <v>989</v>
+      </c>
+      <c r="O12" s="241"/>
       <c r="P12" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6495</v>
       </c>
       <c r="Q12" s="34">
         <f t="shared" si="0"/>
@@ -13253,37 +13264,47 @@
         <v>0</v>
       </c>
       <c r="S12" s="237"/>
-      <c r="T12" s="34"/>
+      <c r="T12" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21">
         <v>45086</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="22">
+        <v>2282</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E13" s="24">
         <v>45086</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25">
+        <v>4407</v>
+      </c>
       <c r="G13" s="205"/>
       <c r="H13" s="27">
         <v>45086</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="28">
+        <v>793</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="30">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="N13" s="31">
-        <v>0</v>
-      </c>
-      <c r="O13" s="284"/>
+        <v>747</v>
+      </c>
+      <c r="O13" s="241"/>
       <c r="P13" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4407</v>
       </c>
       <c r="Q13" s="34">
         <f t="shared" si="0"/>
@@ -13293,37 +13314,47 @@
         <v>0</v>
       </c>
       <c r="S13" s="237"/>
-      <c r="T13" s="34"/>
+      <c r="T13" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21">
         <v>45087</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="22">
+        <v>4428</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E14" s="24">
         <v>45087</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>7446</v>
+      </c>
       <c r="G14" s="205"/>
       <c r="H14" s="27">
         <v>45087</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="28">
+        <v>292</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="43"/>
       <c r="L14" s="39"/>
       <c r="M14" s="30">
-        <v>0</v>
+        <v>1402</v>
       </c>
       <c r="N14" s="31">
-        <v>0</v>
-      </c>
-      <c r="O14" s="284"/>
+        <v>1324</v>
+      </c>
+      <c r="O14" s="241"/>
       <c r="P14" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7446</v>
       </c>
       <c r="Q14" s="34">
         <f t="shared" si="0"/>
@@ -13333,37 +13364,45 @@
         <v>0</v>
       </c>
       <c r="S14" s="237"/>
-      <c r="T14" s="34"/>
+      <c r="T14" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21">
         <v>45088</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
       <c r="D15" s="50"/>
       <c r="E15" s="24">
         <v>45088</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>5957</v>
+      </c>
       <c r="G15" s="205"/>
       <c r="H15" s="27">
         <v>45088</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="28">
+        <v>80</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="43"/>
       <c r="L15" s="39"/>
       <c r="M15" s="30">
-        <v>0</v>
+        <v>3505</v>
       </c>
       <c r="N15" s="31">
-        <v>0</v>
-      </c>
-      <c r="O15" s="284"/>
+        <v>2372</v>
+      </c>
+      <c r="O15" s="241"/>
       <c r="P15" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5957</v>
       </c>
       <c r="Q15" s="34">
         <f t="shared" si="0"/>
@@ -13373,7 +13412,9 @@
         <v>0</v>
       </c>
       <c r="S15" s="237"/>
-      <c r="T15" s="34"/>
+      <c r="T15" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
@@ -13385,7 +13426,9 @@
       <c r="E16" s="24">
         <v>45089</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="G16" s="205"/>
       <c r="H16" s="27">
         <v>45089</v>
@@ -13400,16 +13443,16 @@
       <c r="N16" s="31">
         <v>0</v>
       </c>
-      <c r="O16" s="284" t="s">
+      <c r="O16" s="241" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="34" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R16" s="48">
         <v>0</v>
@@ -13442,7 +13485,7 @@
       <c r="N17" s="31">
         <v>0</v>
       </c>
-      <c r="O17" s="284"/>
+      <c r="O17" s="241"/>
       <c r="P17" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13482,7 +13525,7 @@
       <c r="N18" s="31">
         <v>0</v>
       </c>
-      <c r="O18" s="284"/>
+      <c r="O18" s="241"/>
       <c r="P18" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13512,7 +13555,9 @@
       <c r="H19" s="27">
         <v>45092</v>
       </c>
-      <c r="I19" s="28"/>
+      <c r="I19" s="28">
+        <v>3</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="53"/>
       <c r="L19" s="54"/>
@@ -13522,14 +13567,14 @@
       <c r="N19" s="31">
         <v>0</v>
       </c>
-      <c r="O19" s="284"/>
+      <c r="O19" s="241"/>
       <c r="P19" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19" s="48">
         <v>0</v>
@@ -13562,7 +13607,7 @@
       <c r="N20" s="31">
         <v>0</v>
       </c>
-      <c r="O20" s="284" t="s">
+      <c r="O20" s="241" t="s">
         <v>7</v>
       </c>
       <c r="P20" s="33">
@@ -13604,7 +13649,7 @@
       <c r="N21" s="31">
         <v>0</v>
       </c>
-      <c r="O21" s="284"/>
+      <c r="O21" s="241"/>
       <c r="P21" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13644,7 +13689,7 @@
       <c r="N22" s="31">
         <v>0</v>
       </c>
-      <c r="O22" s="284"/>
+      <c r="O22" s="241"/>
       <c r="P22" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13684,7 +13729,7 @@
       <c r="N23" s="31">
         <v>0</v>
       </c>
-      <c r="O23" s="284"/>
+      <c r="O23" s="241"/>
       <c r="P23" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13724,7 +13769,7 @@
       <c r="N24" s="31">
         <v>0</v>
       </c>
-      <c r="O24" s="284"/>
+      <c r="O24" s="241"/>
       <c r="P24" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13764,7 +13809,7 @@
       <c r="N25" s="31">
         <v>0</v>
       </c>
-      <c r="O25" s="284"/>
+      <c r="O25" s="241"/>
       <c r="P25" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13804,7 +13849,7 @@
       <c r="N26" s="31">
         <v>0</v>
       </c>
-      <c r="O26" s="284"/>
+      <c r="O26" s="241"/>
       <c r="P26" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13844,7 +13889,7 @@
       <c r="N27" s="31">
         <v>0</v>
       </c>
-      <c r="O27" s="284" t="s">
+      <c r="O27" s="241" t="s">
         <v>62</v>
       </c>
       <c r="P27" s="33">
@@ -13886,7 +13931,7 @@
       <c r="N28" s="31">
         <v>0</v>
       </c>
-      <c r="O28" s="284"/>
+      <c r="O28" s="241"/>
       <c r="P28" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13926,7 +13971,7 @@
       <c r="N29" s="31">
         <v>0</v>
       </c>
-      <c r="O29" s="284"/>
+      <c r="O29" s="241"/>
       <c r="P29" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13966,7 +14011,7 @@
       <c r="N30" s="31">
         <v>0</v>
       </c>
-      <c r="O30" s="284"/>
+      <c r="O30" s="241"/>
       <c r="P30" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14006,7 +14051,7 @@
       <c r="N31" s="31">
         <v>0</v>
       </c>
-      <c r="O31" s="284"/>
+      <c r="O31" s="241"/>
       <c r="P31" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14046,7 +14091,7 @@
       <c r="N32" s="31">
         <v>0</v>
       </c>
-      <c r="O32" s="284"/>
+      <c r="O32" s="241"/>
       <c r="P32" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14086,7 +14131,7 @@
       <c r="N33" s="31">
         <v>0</v>
       </c>
-      <c r="O33" s="284"/>
+      <c r="O33" s="241"/>
       <c r="P33" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14126,7 +14171,7 @@
       <c r="N34" s="31">
         <v>0</v>
       </c>
-      <c r="O34" s="284"/>
+      <c r="O34" s="241"/>
       <c r="P34" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14159,7 +14204,7 @@
       <c r="N35" s="31">
         <v>0</v>
       </c>
-      <c r="O35" s="284"/>
+      <c r="O35" s="241"/>
       <c r="P35" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14192,7 +14237,7 @@
       <c r="N36" s="31">
         <v>0</v>
       </c>
-      <c r="O36" s="284"/>
+      <c r="O36" s="241"/>
       <c r="P36" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14225,7 +14270,7 @@
       <c r="N37" s="31">
         <v>0</v>
       </c>
-      <c r="O37" s="284"/>
+      <c r="O37" s="241"/>
       <c r="P37" s="33">
         <v>0</v>
       </c>
@@ -14257,7 +14302,7 @@
       <c r="N38" s="31">
         <v>0</v>
       </c>
-      <c r="O38" s="284"/>
+      <c r="O38" s="241"/>
       <c r="P38" s="33">
         <v>0</v>
       </c>
@@ -14289,7 +14334,7 @@
       <c r="N39" s="31">
         <v>0</v>
       </c>
-      <c r="O39" s="284"/>
+      <c r="O39" s="241"/>
       <c r="P39" s="33">
         <v>0</v>
       </c>
@@ -14319,7 +14364,7 @@
       <c r="N40" s="31">
         <v>0</v>
       </c>
-      <c r="O40" s="284"/>
+      <c r="O40" s="241"/>
       <c r="P40" s="33">
         <v>0</v>
       </c>
@@ -14349,7 +14394,7 @@
       <c r="N41" s="31">
         <v>0</v>
       </c>
-      <c r="O41" s="284"/>
+      <c r="O41" s="241"/>
       <c r="P41" s="33">
         <v>0</v>
       </c>
@@ -14379,7 +14424,7 @@
       <c r="N42" s="31">
         <v>0</v>
       </c>
-      <c r="O42" s="284"/>
+      <c r="O42" s="241"/>
       <c r="P42" s="33">
         <v>0</v>
       </c>
@@ -14409,7 +14454,7 @@
       <c r="N43" s="31">
         <v>0</v>
       </c>
-      <c r="O43" s="284"/>
+      <c r="O43" s="241"/>
       <c r="P43" s="33">
         <v>0</v>
       </c>
@@ -14439,7 +14484,7 @@
       <c r="N44" s="31">
         <v>0</v>
       </c>
-      <c r="O44" s="284"/>
+      <c r="O44" s="241"/>
       <c r="P44" s="33">
         <v>0</v>
       </c>
@@ -14469,7 +14514,7 @@
       <c r="N45" s="31">
         <v>0</v>
       </c>
-      <c r="O45" s="284"/>
+      <c r="O45" s="241"/>
       <c r="P45" s="33">
         <v>0</v>
       </c>
@@ -14499,7 +14544,7 @@
       <c r="N46" s="31">
         <v>0</v>
       </c>
-      <c r="O46" s="284"/>
+      <c r="O46" s="241"/>
       <c r="P46" s="33">
         <v>0</v>
       </c>
@@ -14529,7 +14574,7 @@
       <c r="N47" s="31">
         <v>0</v>
       </c>
-      <c r="O47" s="284"/>
+      <c r="O47" s="241"/>
       <c r="P47" s="33">
         <v>0</v>
       </c>
@@ -14559,7 +14604,7 @@
       <c r="N48" s="31">
         <v>0</v>
       </c>
-      <c r="O48" s="284"/>
+      <c r="O48" s="241"/>
       <c r="P48" s="33">
         <v>0</v>
       </c>
@@ -14589,7 +14634,7 @@
       <c r="N49" s="31">
         <v>0</v>
       </c>
-      <c r="O49" s="284"/>
+      <c r="O49" s="241"/>
       <c r="P49" s="33">
         <v>0</v>
       </c>
@@ -14621,7 +14666,7 @@
       <c r="N50" s="31">
         <v>0</v>
       </c>
-      <c r="O50" s="284"/>
+      <c r="O50" s="241"/>
       <c r="P50" s="33">
         <v>0</v>
       </c>
@@ -14653,7 +14698,7 @@
       <c r="N51" s="31">
         <v>0</v>
       </c>
-      <c r="O51" s="284"/>
+      <c r="O51" s="241"/>
       <c r="P51" s="33">
         <v>0</v>
       </c>
@@ -14685,7 +14730,7 @@
       <c r="N52" s="31">
         <v>0</v>
       </c>
-      <c r="O52" s="284"/>
+      <c r="O52" s="241"/>
       <c r="P52" s="33">
         <v>0</v>
       </c>
@@ -14717,7 +14762,7 @@
       <c r="N53" s="31">
         <v>0</v>
       </c>
-      <c r="O53" s="284"/>
+      <c r="O53" s="241"/>
       <c r="P53" s="33">
         <v>0</v>
       </c>
@@ -14747,7 +14792,7 @@
       <c r="N54" s="31">
         <v>0</v>
       </c>
-      <c r="O54" s="284"/>
+      <c r="O54" s="241"/>
       <c r="P54" s="33">
         <v>0</v>
       </c>
@@ -14779,7 +14824,7 @@
       <c r="N55" s="31">
         <v>0</v>
       </c>
-      <c r="O55" s="284"/>
+      <c r="O55" s="241"/>
       <c r="P55" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14808,21 +14853,21 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="269">
+      <c r="M56" s="259">
         <f>SUM(M5:M48)</f>
-        <v>9517</v>
-      </c>
-      <c r="N56" s="248">
+        <v>17469</v>
+      </c>
+      <c r="N56" s="268">
         <f>SUM(N5:N48)</f>
-        <v>14456</v>
+        <v>19888</v>
       </c>
       <c r="P56" s="100">
         <f t="shared" si="1"/>
-        <v>23973</v>
+        <v>37357</v>
       </c>
       <c r="Q56" s="100">
         <f t="shared" si="1"/>
-        <v>23973</v>
+        <v>37357</v>
       </c>
       <c r="R56" s="101">
         <f>SUM(R5:R48)</f>
@@ -14844,8 +14889,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="270"/>
-      <c r="N57" s="249"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="269"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -14877,7 +14922,7 @@
       </c>
       <c r="C59" s="122">
         <f>SUM(C5:C58)</f>
-        <v>29538</v>
+        <v>39234</v>
       </c>
       <c r="D59" s="219"/>
       <c r="E59" s="124" t="s">
@@ -14885,7 +14930,7 @@
       </c>
       <c r="F59" s="125">
         <f>SUM(F5:F58)</f>
-        <v>54946</v>
+        <v>79251</v>
       </c>
       <c r="G59" s="123"/>
       <c r="H59" s="126" t="s">
@@ -14893,7 +14938,7 @@
       </c>
       <c r="I59" s="127">
         <f>SUM(I5:I58)</f>
-        <v>1165</v>
+        <v>2393</v>
       </c>
       <c r="J59" s="128"/>
       <c r="K59" s="129" t="s">
@@ -14919,32 +14964,32 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="250" t="s">
+      <c r="H61" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="251"/>
+      <c r="I61" s="271"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="252">
+      <c r="K61" s="272">
         <f>I59+L59</f>
-        <v>1165</v>
-      </c>
-      <c r="L61" s="253"/>
-      <c r="M61" s="254">
+        <v>2393</v>
+      </c>
+      <c r="L61" s="273"/>
+      <c r="M61" s="274">
         <f>N56+M56</f>
-        <v>23973</v>
-      </c>
-      <c r="N61" s="255"/>
+        <v>37357</v>
+      </c>
+      <c r="N61" s="275"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="261" t="s">
+      <c r="D62" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="261"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
-        <v>24243</v>
+        <v>37624</v>
       </c>
       <c r="I62" s="137"/>
       <c r="J62" s="138"/>
@@ -14952,20 +14997,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="256"/>
-      <c r="E63" s="256"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="276"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="257" t="s">
+      <c r="I63" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="258"/>
-      <c r="K63" s="259">
+      <c r="J63" s="278"/>
+      <c r="K63" s="279">
         <f>F65+F66+F67</f>
-        <v>24243</v>
-      </c>
-      <c r="L63" s="260"/>
+        <v>37624</v>
+      </c>
+      <c r="L63" s="280"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -14989,18 +15034,18 @@
       </c>
       <c r="F65" s="131">
         <f>SUM(F62:F64)</f>
-        <v>24243</v>
+        <v>37624</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="146" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="241">
+      <c r="K65" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="242"/>
+      <c r="L65" s="262"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -15013,22 +15058,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="243" t="s">
+      <c r="D67" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="244"/>
+      <c r="E67" s="264"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="245" t="s">
+      <c r="I67" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="246"/>
-      <c r="K67" s="247">
+      <c r="J67" s="266"/>
+      <c r="K67" s="267">
         <f>K63+K65</f>
-        <v>24243</v>
-      </c>
-      <c r="L67" s="247"/>
+        <v>37624</v>
+      </c>
+      <c r="L67" s="267"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -15153,6 +15198,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="I63:J63"/>
     <mergeCell ref="K63:L63"/>
@@ -15160,21 +15220,6 @@
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="I67:J67"/>
     <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15312,15 +15357,15 @@
       <c r="F21" s="187"/>
     </row>
     <row r="22" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="280" t="s">
+      <c r="D22" s="282" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="281"/>
+      <c r="E22" s="283"/>
       <c r="F22" s="188"/>
     </row>
     <row r="23" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="282"/>
-      <c r="E23" s="283"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="285"/>
       <c r="F23" s="188"/>
     </row>
     <row r="24" spans="3:6" ht="21" x14ac:dyDescent="0.35">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="73">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -480,7 +480,7 @@
     <t>°</t>
   </si>
   <si>
-    <t xml:space="preserve">                    </t>
+    <t>SIN BAUCHER  de   $ 375</t>
   </si>
 </sst>
 </file>
@@ -2363,60 +2363,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2479,6 +2425,60 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4572,31 +4572,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="264"/>
+      <c r="C1" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="253"/>
+      <c r="B2" s="265"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -4605,21 +4605,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="269"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="270"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="273" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4632,14 +4632,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="276"/>
+      <c r="H4" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="278"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4649,11 +4649,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="274"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6483,11 +6483,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="259">
+      <c r="M45" s="271">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="268">
+      <c r="N45" s="250">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -6519,8 +6519,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="260"/>
-      <c r="N46" s="269"/>
+      <c r="M46" s="272"/>
+      <c r="N46" s="251"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -6612,29 +6612,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="270" t="s">
+      <c r="H51" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="271"/>
+      <c r="I51" s="253"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="272">
+      <c r="K51" s="254">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="273"/>
-      <c r="M51" s="274">
+      <c r="L51" s="255"/>
+      <c r="M51" s="256">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="275"/>
+      <c r="N51" s="257"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="281" t="s">
+      <c r="D52" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="281"/>
+      <c r="E52" s="263"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -6645,20 +6645,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="276"/>
-      <c r="E53" s="276"/>
+      <c r="D53" s="258"/>
+      <c r="E53" s="258"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="277" t="s">
+      <c r="I53" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="278"/>
-      <c r="K53" s="279">
+      <c r="J53" s="260"/>
+      <c r="K53" s="261">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="280"/>
+      <c r="L53" s="262"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -6689,11 +6689,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="261">
+      <c r="K55" s="243">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="262"/>
+      <c r="L55" s="244"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -6706,22 +6706,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="263" t="s">
+      <c r="D57" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="264"/>
+      <c r="E57" s="246"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="265" t="s">
+      <c r="I57" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="266"/>
-      <c r="K57" s="267">
+      <c r="J57" s="248"/>
+      <c r="K57" s="249">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="267"/>
+      <c r="L57" s="249"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -6846,6 +6846,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6858,16 +6868,6 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6913,31 +6913,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="264"/>
+      <c r="C1" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
+      <c r="B2" s="265"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6948,21 +6948,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="269"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="270"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="273" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6975,14 +6975,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="276"/>
+      <c r="H4" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="278"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -6992,11 +6992,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="274"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9535,11 +9535,11 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="259">
+      <c r="M63" s="271">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
-      <c r="N63" s="268">
+      <c r="N63" s="250">
         <f>SUM(N5:N48)</f>
         <v>46604</v>
       </c>
@@ -9571,8 +9571,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="260"/>
-      <c r="N64" s="269"/>
+      <c r="M64" s="272"/>
+      <c r="N64" s="251"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -9664,29 +9664,29 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="270" t="s">
+      <c r="H69" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="271"/>
+      <c r="I69" s="253"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="272">
+      <c r="K69" s="254">
         <f>I67+L67</f>
         <v>6435</v>
       </c>
-      <c r="L69" s="273"/>
-      <c r="M69" s="274">
+      <c r="L69" s="255"/>
+      <c r="M69" s="256">
         <f>N63+M63</f>
         <v>135236</v>
       </c>
-      <c r="N69" s="275"/>
+      <c r="N69" s="257"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="281" t="s">
+      <c r="D70" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="281"/>
+      <c r="E70" s="263"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
         <v>65323.966999999975</v>
@@ -9697,20 +9697,20 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="276"/>
-      <c r="E71" s="276"/>
+      <c r="D71" s="258"/>
+      <c r="E71" s="258"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="277" t="s">
+      <c r="I71" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="278"/>
-      <c r="K71" s="279">
+      <c r="J71" s="260"/>
+      <c r="K71" s="261">
         <f>F73+F74+F75</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L71" s="280"/>
+      <c r="L71" s="262"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
@@ -9741,11 +9741,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="261">
+      <c r="K73" s="243">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="262"/>
+      <c r="L73" s="244"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="148" t="s">
@@ -9758,22 +9758,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="263" t="s">
+      <c r="D75" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="264"/>
+      <c r="E75" s="246"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="265" t="s">
+      <c r="I75" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="266"/>
-      <c r="K75" s="267">
+      <c r="J75" s="248"/>
+      <c r="K75" s="249">
         <f>K71+K73</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L75" s="267"/>
+      <c r="L75" s="249"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -9898,6 +9898,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9908,18 +9920,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9962,31 +9962,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="264"/>
+      <c r="C1" s="266" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
+      <c r="B2" s="265"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -9997,21 +9997,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="269"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="270"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="273" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10024,14 +10024,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="276"/>
+      <c r="H4" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="278"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10041,11 +10041,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="274"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -12357,11 +12357,11 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="259">
+      <c r="M56" s="271">
         <f>SUM(M5:M48)</f>
         <v>41580</v>
       </c>
-      <c r="N56" s="268">
+      <c r="N56" s="250">
         <f>SUM(N5:N48)</f>
         <v>50201</v>
       </c>
@@ -12393,8 +12393,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="260"/>
-      <c r="N57" s="269"/>
+      <c r="M57" s="272"/>
+      <c r="N57" s="251"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -12468,29 +12468,29 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="270" t="s">
+      <c r="H61" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="271"/>
+      <c r="I61" s="253"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="272">
+      <c r="K61" s="254">
         <f>I59+L59</f>
         <v>4723.5599999999995</v>
       </c>
-      <c r="L61" s="273"/>
-      <c r="M61" s="274">
+      <c r="L61" s="255"/>
+      <c r="M61" s="256">
         <f>N56+M56</f>
         <v>91781</v>
       </c>
-      <c r="N61" s="275"/>
+      <c r="N61" s="257"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="281"/>
+      <c r="E62" s="263"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
         <v>70157.13</v>
@@ -12501,20 +12501,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="276"/>
-      <c r="E63" s="276"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="258"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="277" t="s">
+      <c r="I63" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="278"/>
-      <c r="K63" s="279">
+      <c r="J63" s="260"/>
+      <c r="K63" s="261">
         <f>F65+F66+F67</f>
         <v>70157.13</v>
       </c>
-      <c r="L63" s="280"/>
+      <c r="L63" s="262"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -12545,11 +12545,11 @@
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="261">
+      <c r="K65" s="243">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="262"/>
+      <c r="L65" s="244"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -12562,22 +12562,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="263" t="s">
+      <c r="D67" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="264"/>
+      <c r="E67" s="246"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="265" t="s">
+      <c r="I67" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="266"/>
-      <c r="K67" s="267">
+      <c r="J67" s="248"/>
+      <c r="K67" s="249">
         <f>K63+K65</f>
         <v>70157.13</v>
       </c>
-      <c r="L67" s="267"/>
+      <c r="L67" s="249"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -12705,6 +12705,18 @@
     <sortCondition ref="B38:B56"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12715,18 +12727,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12742,8 +12742,8 @@
   </sheetPr>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12769,31 +12769,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="264"/>
+      <c r="C1" s="266" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
+      <c r="B2" s="265"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -12804,21 +12804,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="269"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="270"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="273" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12831,14 +12831,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="276"/>
+      <c r="H4" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="278"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12848,11 +12848,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="274"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -13421,114 +13421,143 @@
       <c r="B16" s="21">
         <v>45089</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="22">
+        <v>7772</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E16" s="24">
         <v>45089</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>72</v>
+      <c r="F16" s="25">
+        <v>13913</v>
       </c>
       <c r="G16" s="205"/>
       <c r="H16" s="27">
         <v>45089</v>
       </c>
-      <c r="I16" s="28"/>
+      <c r="I16" s="28">
+        <v>60</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="43"/>
       <c r="L16" s="9"/>
       <c r="M16" s="30">
-        <v>0</v>
+        <v>2054</v>
       </c>
       <c r="N16" s="31">
-        <v>0</v>
+        <f>2353+1299</f>
+        <v>3652</v>
       </c>
       <c r="O16" s="241" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="34" t="e">
+        <v>13538</v>
+      </c>
+      <c r="Q16" s="234">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>-375</v>
       </c>
       <c r="R16" s="48">
         <v>0</v>
       </c>
-      <c r="S16" s="237"/>
-      <c r="T16" s="34"/>
+      <c r="S16" s="237" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21">
         <v>45090</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="22">
+        <v>4956</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E17" s="24">
         <v>45090</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25">
+        <v>7264</v>
+      </c>
       <c r="G17" s="205"/>
       <c r="H17" s="27">
         <v>45090</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="28">
+        <v>210</v>
+      </c>
       <c r="J17" s="37"/>
       <c r="K17" s="51"/>
       <c r="L17" s="47"/>
       <c r="M17" s="30">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="N17" s="31">
-        <v>0</v>
+        <v>1835</v>
       </c>
       <c r="O17" s="241"/>
       <c r="P17" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="34">
+        <v>7263</v>
+      </c>
+      <c r="Q17" s="234">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="48">
         <v>0</v>
       </c>
       <c r="S17" s="237"/>
-      <c r="T17" s="34"/>
+      <c r="T17" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21">
         <v>45091</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="22">
+        <v>1895</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E18" s="24">
         <v>45091</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="25">
+        <v>4192</v>
+      </c>
       <c r="G18" s="205"/>
       <c r="H18" s="27">
         <v>45091</v>
       </c>
-      <c r="I18" s="28"/>
+      <c r="I18" s="28">
+        <v>60</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="K18" s="208"/>
       <c r="L18" s="39"/>
       <c r="M18" s="30">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="N18" s="31">
-        <v>0</v>
+        <v>2093</v>
       </c>
       <c r="O18" s="241"/>
       <c r="P18" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4192</v>
       </c>
       <c r="Q18" s="34">
         <f t="shared" si="0"/>
@@ -13537,8 +13566,12 @@
       <c r="R18" s="48">
         <v>0</v>
       </c>
-      <c r="S18" s="237"/>
-      <c r="T18" s="34"/>
+      <c r="S18" s="237" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
@@ -13556,7 +13589,7 @@
         <v>45092</v>
       </c>
       <c r="I19" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="53"/>
@@ -13570,11 +13603,11 @@
       <c r="O19" s="241"/>
       <c r="P19" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19" s="48">
         <v>0</v>
@@ -14853,21 +14886,21 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="259">
+      <c r="M56" s="271">
         <f>SUM(M5:M48)</f>
-        <v>17469</v>
-      </c>
-      <c r="N56" s="268">
+        <v>19929</v>
+      </c>
+      <c r="N56" s="250">
         <f>SUM(N5:N48)</f>
-        <v>19888</v>
+        <v>27468</v>
       </c>
       <c r="P56" s="100">
         <f t="shared" si="1"/>
-        <v>37357</v>
+        <v>47397</v>
       </c>
       <c r="Q56" s="100">
         <f t="shared" si="1"/>
-        <v>37357</v>
+        <v>47397</v>
       </c>
       <c r="R56" s="101">
         <f>SUM(R5:R48)</f>
@@ -14889,8 +14922,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="260"/>
-      <c r="N57" s="269"/>
+      <c r="M57" s="272"/>
+      <c r="N57" s="251"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -14922,7 +14955,7 @@
       </c>
       <c r="C59" s="122">
         <f>SUM(C5:C58)</f>
-        <v>39234</v>
+        <v>53857</v>
       </c>
       <c r="D59" s="219"/>
       <c r="E59" s="124" t="s">
@@ -14930,7 +14963,7 @@
       </c>
       <c r="F59" s="125">
         <f>SUM(F5:F58)</f>
-        <v>79251</v>
+        <v>104620</v>
       </c>
       <c r="G59" s="123"/>
       <c r="H59" s="126" t="s">
@@ -14938,7 +14971,7 @@
       </c>
       <c r="I59" s="127">
         <f>SUM(I5:I58)</f>
-        <v>2393</v>
+        <v>2720</v>
       </c>
       <c r="J59" s="128"/>
       <c r="K59" s="129" t="s">
@@ -14964,32 +14997,32 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="270" t="s">
+      <c r="H61" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="271"/>
+      <c r="I61" s="253"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="272">
+      <c r="K61" s="254">
         <f>I59+L59</f>
-        <v>2393</v>
-      </c>
-      <c r="L61" s="273"/>
-      <c r="M61" s="274">
+        <v>2720</v>
+      </c>
+      <c r="L61" s="255"/>
+      <c r="M61" s="256">
         <f>N56+M56</f>
-        <v>37357</v>
-      </c>
-      <c r="N61" s="275"/>
+        <v>47397</v>
+      </c>
+      <c r="N61" s="257"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="281"/>
+      <c r="E62" s="263"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
-        <v>37624</v>
+        <v>48043</v>
       </c>
       <c r="I62" s="137"/>
       <c r="J62" s="138"/>
@@ -14997,20 +15030,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="276"/>
-      <c r="E63" s="276"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="258"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="277" t="s">
+      <c r="I63" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="278"/>
-      <c r="K63" s="279">
+      <c r="J63" s="260"/>
+      <c r="K63" s="261">
         <f>F65+F66+F67</f>
-        <v>37624</v>
-      </c>
-      <c r="L63" s="280"/>
+        <v>48043</v>
+      </c>
+      <c r="L63" s="262"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -15034,18 +15067,18 @@
       </c>
       <c r="F65" s="131">
         <f>SUM(F62:F64)</f>
-        <v>37624</v>
+        <v>48043</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="146" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="261">
+      <c r="K65" s="243">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="262"/>
+      <c r="L65" s="244"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -15058,22 +15091,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="263" t="s">
+      <c r="D67" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="264"/>
+      <c r="E67" s="246"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="265" t="s">
+      <c r="I67" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="266"/>
-      <c r="K67" s="267">
+      <c r="J67" s="248"/>
+      <c r="K67" s="249">
         <f>K63+K65</f>
-        <v>37624</v>
-      </c>
-      <c r="L67" s="267"/>
+        <v>48043</v>
+      </c>
+      <c r="L67" s="249"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -15198,21 +15231,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="I63:J63"/>
     <mergeCell ref="K63:L63"/>
@@ -15220,6 +15238,21 @@
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="I67:J67"/>
     <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="73">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2363,6 +2363,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2425,60 +2479,6 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4572,31 +4572,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="264"/>
-      <c r="C1" s="266" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="265"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -4605,21 +4605,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="269"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4632,14 +4632,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="H4" s="277" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="278"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4649,11 +4649,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="280"/>
-      <c r="R4" s="274"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6483,11 +6483,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="271">
+      <c r="M45" s="259">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="250">
+      <c r="N45" s="268">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -6519,8 +6519,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="272"/>
-      <c r="N46" s="251"/>
+      <c r="M46" s="260"/>
+      <c r="N46" s="269"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -6612,29 +6612,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="252" t="s">
+      <c r="H51" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="253"/>
+      <c r="I51" s="271"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="254">
+      <c r="K51" s="272">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="255"/>
-      <c r="M51" s="256">
+      <c r="L51" s="273"/>
+      <c r="M51" s="274">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="257"/>
+      <c r="N51" s="275"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="263" t="s">
+      <c r="D52" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="263"/>
+      <c r="E52" s="281"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -6645,20 +6645,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="258"/>
-      <c r="E53" s="258"/>
+      <c r="D53" s="276"/>
+      <c r="E53" s="276"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="259" t="s">
+      <c r="I53" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="260"/>
-      <c r="K53" s="261">
+      <c r="J53" s="278"/>
+      <c r="K53" s="279">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="262"/>
+      <c r="L53" s="280"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -6689,11 +6689,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="243">
+      <c r="K55" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="244"/>
+      <c r="L55" s="262"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -6706,22 +6706,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="245" t="s">
+      <c r="D57" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="246"/>
+      <c r="E57" s="264"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="247" t="s">
+      <c r="I57" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="248"/>
-      <c r="K57" s="249">
+      <c r="J57" s="266"/>
+      <c r="K57" s="267">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="249"/>
+      <c r="L57" s="267"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -6846,16 +6846,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6868,6 +6858,16 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6913,31 +6913,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="264"/>
-      <c r="C1" s="266" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="265"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6948,21 +6948,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="269"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6975,14 +6975,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="H4" s="277" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="278"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -6992,11 +6992,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="280"/>
-      <c r="R4" s="274"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9535,11 +9535,11 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="271">
+      <c r="M63" s="259">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
-      <c r="N63" s="250">
+      <c r="N63" s="268">
         <f>SUM(N5:N48)</f>
         <v>46604</v>
       </c>
@@ -9571,8 +9571,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="272"/>
-      <c r="N64" s="251"/>
+      <c r="M64" s="260"/>
+      <c r="N64" s="269"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -9664,29 +9664,29 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="252" t="s">
+      <c r="H69" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="253"/>
+      <c r="I69" s="271"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="254">
+      <c r="K69" s="272">
         <f>I67+L67</f>
         <v>6435</v>
       </c>
-      <c r="L69" s="255"/>
-      <c r="M69" s="256">
+      <c r="L69" s="273"/>
+      <c r="M69" s="274">
         <f>N63+M63</f>
         <v>135236</v>
       </c>
-      <c r="N69" s="257"/>
+      <c r="N69" s="275"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="263" t="s">
+      <c r="D70" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="263"/>
+      <c r="E70" s="281"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
         <v>65323.966999999975</v>
@@ -9697,20 +9697,20 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="258"/>
-      <c r="E71" s="258"/>
+      <c r="D71" s="276"/>
+      <c r="E71" s="276"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="259" t="s">
+      <c r="I71" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="260"/>
-      <c r="K71" s="261">
+      <c r="J71" s="278"/>
+      <c r="K71" s="279">
         <f>F73+F74+F75</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L71" s="262"/>
+      <c r="L71" s="280"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
@@ -9741,11 +9741,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="243">
+      <c r="K73" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="244"/>
+      <c r="L73" s="262"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="148" t="s">
@@ -9758,22 +9758,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="245" t="s">
+      <c r="D75" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="246"/>
+      <c r="E75" s="264"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="247" t="s">
+      <c r="I75" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="248"/>
-      <c r="K75" s="249">
+      <c r="J75" s="266"/>
+      <c r="K75" s="267">
         <f>K71+K73</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L75" s="249"/>
+      <c r="L75" s="267"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -9898,18 +9898,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9920,6 +9908,18 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9962,31 +9962,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="264"/>
-      <c r="C1" s="266" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="265"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -9997,21 +9997,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="269"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10024,14 +10024,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="H4" s="277" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="278"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10041,11 +10041,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="280"/>
-      <c r="R4" s="274"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -12357,11 +12357,11 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="271">
+      <c r="M56" s="259">
         <f>SUM(M5:M48)</f>
         <v>41580</v>
       </c>
-      <c r="N56" s="250">
+      <c r="N56" s="268">
         <f>SUM(N5:N48)</f>
         <v>50201</v>
       </c>
@@ -12393,8 +12393,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="272"/>
-      <c r="N57" s="251"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="269"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -12468,29 +12468,29 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="252" t="s">
+      <c r="H61" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="253"/>
+      <c r="I61" s="271"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="254">
+      <c r="K61" s="272">
         <f>I59+L59</f>
         <v>4723.5599999999995</v>
       </c>
-      <c r="L61" s="255"/>
-      <c r="M61" s="256">
+      <c r="L61" s="273"/>
+      <c r="M61" s="274">
         <f>N56+M56</f>
         <v>91781</v>
       </c>
-      <c r="N61" s="257"/>
+      <c r="N61" s="275"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="263" t="s">
+      <c r="D62" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="263"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
         <v>70157.13</v>
@@ -12501,20 +12501,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="276"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="259" t="s">
+      <c r="I63" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="260"/>
-      <c r="K63" s="261">
+      <c r="J63" s="278"/>
+      <c r="K63" s="279">
         <f>F65+F66+F67</f>
         <v>70157.13</v>
       </c>
-      <c r="L63" s="262"/>
+      <c r="L63" s="280"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -12545,11 +12545,11 @@
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="243">
+      <c r="K65" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="244"/>
+      <c r="L65" s="262"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -12562,22 +12562,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="245" t="s">
+      <c r="D67" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="246"/>
+      <c r="E67" s="264"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="247" t="s">
+      <c r="I67" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="248"/>
-      <c r="K67" s="249">
+      <c r="J67" s="266"/>
+      <c r="K67" s="267">
         <f>K63+K65</f>
         <v>70157.13</v>
       </c>
-      <c r="L67" s="249"/>
+      <c r="L67" s="267"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -12705,18 +12705,6 @@
     <sortCondition ref="B38:B56"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12727,6 +12715,18 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12742,8 +12742,8 @@
   </sheetPr>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12769,31 +12769,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="264"/>
-      <c r="C1" s="266" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="265"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -12804,21 +12804,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="269"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12831,14 +12831,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="H4" s="277" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="278"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12848,11 +12848,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="280"/>
-      <c r="R4" s="274"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -13578,32 +13578,38 @@
       <c r="B19" s="21">
         <v>45092</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="22">
+        <v>4868</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E19" s="24">
         <v>45092</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="25">
+        <v>7626</v>
+      </c>
       <c r="G19" s="205"/>
       <c r="H19" s="27">
         <v>45092</v>
       </c>
       <c r="I19" s="28">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="53"/>
       <c r="L19" s="54"/>
       <c r="M19" s="30">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="N19" s="31">
-        <v>0</v>
+        <v>2267</v>
       </c>
       <c r="O19" s="241"/>
       <c r="P19" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7626</v>
       </c>
       <c r="Q19" s="34">
         <f t="shared" si="0"/>
@@ -13613,39 +13619,49 @@
         <v>0</v>
       </c>
       <c r="S19" s="237"/>
-      <c r="T19" s="34"/>
+      <c r="T19" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21">
         <v>45093</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="22">
+        <v>4717</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E20" s="24">
         <v>45093</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="25">
+        <v>6109</v>
+      </c>
       <c r="G20" s="205"/>
       <c r="H20" s="27">
         <v>45093</v>
       </c>
-      <c r="I20" s="28"/>
+      <c r="I20" s="28">
+        <v>213</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="55"/>
       <c r="L20" s="47"/>
       <c r="M20" s="30">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="N20" s="31">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="O20" s="241" t="s">
         <v>7</v>
       </c>
       <c r="P20" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6109</v>
       </c>
       <c r="Q20" s="34">
         <f t="shared" si="0"/>
@@ -13655,37 +13671,47 @@
         <v>0</v>
       </c>
       <c r="S20" s="237"/>
-      <c r="T20" s="34"/>
+      <c r="T20" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21">
         <v>45094</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="22">
+        <v>5209</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E21" s="24">
         <v>45094</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25">
+        <v>8208</v>
+      </c>
       <c r="G21" s="205"/>
       <c r="H21" s="27">
         <v>45094</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="28">
+        <v>123</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="209"/>
       <c r="L21" s="47"/>
       <c r="M21" s="30">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="N21" s="31">
-        <v>0</v>
+        <v>2351</v>
       </c>
       <c r="O21" s="241"/>
       <c r="P21" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8208</v>
       </c>
       <c r="Q21" s="34">
         <f t="shared" si="0"/>
@@ -13695,7 +13721,9 @@
         <v>0</v>
       </c>
       <c r="S21" s="238"/>
-      <c r="T21" s="34"/>
+      <c r="T21" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
@@ -14886,21 +14914,21 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="271">
+      <c r="M56" s="259">
         <f>SUM(M5:M48)</f>
-        <v>19929</v>
-      </c>
-      <c r="N56" s="250">
+        <v>20802</v>
+      </c>
+      <c r="N56" s="268">
         <f>SUM(N5:N48)</f>
-        <v>27468</v>
+        <v>33131</v>
       </c>
       <c r="P56" s="100">
         <f t="shared" si="1"/>
-        <v>47397</v>
+        <v>53933</v>
       </c>
       <c r="Q56" s="100">
         <f t="shared" si="1"/>
-        <v>47397</v>
+        <v>53933</v>
       </c>
       <c r="R56" s="101">
         <f>SUM(R5:R48)</f>
@@ -14922,8 +14950,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="272"/>
-      <c r="N57" s="251"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="269"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -14955,7 +14983,7 @@
       </c>
       <c r="C59" s="122">
         <f>SUM(C5:C58)</f>
-        <v>53857</v>
+        <v>68651</v>
       </c>
       <c r="D59" s="219"/>
       <c r="E59" s="124" t="s">
@@ -14963,7 +14991,7 @@
       </c>
       <c r="F59" s="125">
         <f>SUM(F5:F58)</f>
-        <v>104620</v>
+        <v>126563</v>
       </c>
       <c r="G59" s="123"/>
       <c r="H59" s="126" t="s">
@@ -14971,7 +14999,7 @@
       </c>
       <c r="I59" s="127">
         <f>SUM(I5:I58)</f>
-        <v>2720</v>
+        <v>3333</v>
       </c>
       <c r="J59" s="128"/>
       <c r="K59" s="129" t="s">
@@ -14997,32 +15025,32 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="252" t="s">
+      <c r="H61" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="253"/>
+      <c r="I61" s="271"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="254">
+      <c r="K61" s="272">
         <f>I59+L59</f>
-        <v>2720</v>
-      </c>
-      <c r="L61" s="255"/>
-      <c r="M61" s="256">
+        <v>3333</v>
+      </c>
+      <c r="L61" s="273"/>
+      <c r="M61" s="274">
         <f>N56+M56</f>
-        <v>47397</v>
-      </c>
-      <c r="N61" s="257"/>
+        <v>53933</v>
+      </c>
+      <c r="N61" s="275"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="263" t="s">
+      <c r="D62" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="263"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
-        <v>48043</v>
+        <v>54579</v>
       </c>
       <c r="I62" s="137"/>
       <c r="J62" s="138"/>
@@ -15030,20 +15058,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="276"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="259" t="s">
+      <c r="I63" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="260"/>
-      <c r="K63" s="261">
+      <c r="J63" s="278"/>
+      <c r="K63" s="279">
         <f>F65+F66+F67</f>
-        <v>48043</v>
-      </c>
-      <c r="L63" s="262"/>
+        <v>54579</v>
+      </c>
+      <c r="L63" s="280"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -15067,18 +15095,18 @@
       </c>
       <c r="F65" s="131">
         <f>SUM(F62:F64)</f>
-        <v>48043</v>
+        <v>54579</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="146" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="243">
+      <c r="K65" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="244"/>
+      <c r="L65" s="262"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -15091,22 +15119,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="245" t="s">
+      <c r="D67" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="246"/>
+      <c r="E67" s="264"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="247" t="s">
+      <c r="I67" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="248"/>
-      <c r="K67" s="249">
+      <c r="J67" s="266"/>
+      <c r="K67" s="267">
         <f>K63+K65</f>
-        <v>48043</v>
-      </c>
-      <c r="L67" s="249"/>
+        <v>54579</v>
+      </c>
+      <c r="L67" s="267"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -15231,18 +15259,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15253,6 +15269,18 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="74">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>SIN BAUCHER  de   $ 375</t>
+  </si>
+  <si>
+    <t>Tortillas</t>
   </si>
 </sst>
 </file>
@@ -2363,60 +2366,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2479,6 +2428,60 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4572,31 +4575,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="264"/>
+      <c r="C1" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="253"/>
+      <c r="B2" s="265"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -4605,21 +4608,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="269"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="270"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="273" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4632,14 +4635,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="276"/>
+      <c r="H4" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="278"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4649,11 +4652,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="274"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6483,11 +6486,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="259">
+      <c r="M45" s="271">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="268">
+      <c r="N45" s="250">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -6519,8 +6522,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="260"/>
-      <c r="N46" s="269"/>
+      <c r="M46" s="272"/>
+      <c r="N46" s="251"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -6612,29 +6615,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="270" t="s">
+      <c r="H51" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="271"/>
+      <c r="I51" s="253"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="272">
+      <c r="K51" s="254">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="273"/>
-      <c r="M51" s="274">
+      <c r="L51" s="255"/>
+      <c r="M51" s="256">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="275"/>
+      <c r="N51" s="257"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="281" t="s">
+      <c r="D52" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="281"/>
+      <c r="E52" s="263"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -6645,20 +6648,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="276"/>
-      <c r="E53" s="276"/>
+      <c r="D53" s="258"/>
+      <c r="E53" s="258"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="277" t="s">
+      <c r="I53" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="278"/>
-      <c r="K53" s="279">
+      <c r="J53" s="260"/>
+      <c r="K53" s="261">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="280"/>
+      <c r="L53" s="262"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -6689,11 +6692,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="261">
+      <c r="K55" s="243">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="262"/>
+      <c r="L55" s="244"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -6706,22 +6709,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="263" t="s">
+      <c r="D57" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="264"/>
+      <c r="E57" s="246"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="265" t="s">
+      <c r="I57" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="266"/>
-      <c r="K57" s="267">
+      <c r="J57" s="248"/>
+      <c r="K57" s="249">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="267"/>
+      <c r="L57" s="249"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -6846,6 +6849,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6858,16 +6871,6 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6913,31 +6916,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="264"/>
+      <c r="C1" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
+      <c r="B2" s="265"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6948,21 +6951,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="269"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="270"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="273" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6975,14 +6978,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="276"/>
+      <c r="H4" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="278"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -6992,11 +6995,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="274"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9535,11 +9538,11 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="259">
+      <c r="M63" s="271">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
-      <c r="N63" s="268">
+      <c r="N63" s="250">
         <f>SUM(N5:N48)</f>
         <v>46604</v>
       </c>
@@ -9571,8 +9574,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="260"/>
-      <c r="N64" s="269"/>
+      <c r="M64" s="272"/>
+      <c r="N64" s="251"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -9664,29 +9667,29 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="270" t="s">
+      <c r="H69" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="271"/>
+      <c r="I69" s="253"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="272">
+      <c r="K69" s="254">
         <f>I67+L67</f>
         <v>6435</v>
       </c>
-      <c r="L69" s="273"/>
-      <c r="M69" s="274">
+      <c r="L69" s="255"/>
+      <c r="M69" s="256">
         <f>N63+M63</f>
         <v>135236</v>
       </c>
-      <c r="N69" s="275"/>
+      <c r="N69" s="257"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="281" t="s">
+      <c r="D70" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="281"/>
+      <c r="E70" s="263"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
         <v>65323.966999999975</v>
@@ -9697,20 +9700,20 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="276"/>
-      <c r="E71" s="276"/>
+      <c r="D71" s="258"/>
+      <c r="E71" s="258"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="277" t="s">
+      <c r="I71" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="278"/>
-      <c r="K71" s="279">
+      <c r="J71" s="260"/>
+      <c r="K71" s="261">
         <f>F73+F74+F75</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L71" s="280"/>
+      <c r="L71" s="262"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
@@ -9741,11 +9744,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="261">
+      <c r="K73" s="243">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="262"/>
+      <c r="L73" s="244"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="148" t="s">
@@ -9758,22 +9761,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="263" t="s">
+      <c r="D75" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="264"/>
+      <c r="E75" s="246"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="265" t="s">
+      <c r="I75" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="266"/>
-      <c r="K75" s="267">
+      <c r="J75" s="248"/>
+      <c r="K75" s="249">
         <f>K71+K73</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L75" s="267"/>
+      <c r="L75" s="249"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -9898,6 +9901,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9908,18 +9923,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9962,31 +9965,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="264"/>
+      <c r="C1" s="266" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
+      <c r="B2" s="265"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -9997,21 +10000,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="269"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="270"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="273" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10024,14 +10027,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="276"/>
+      <c r="H4" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="278"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10041,11 +10044,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="274"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -12357,11 +12360,11 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="259">
+      <c r="M56" s="271">
         <f>SUM(M5:M48)</f>
         <v>41580</v>
       </c>
-      <c r="N56" s="268">
+      <c r="N56" s="250">
         <f>SUM(N5:N48)</f>
         <v>50201</v>
       </c>
@@ -12393,8 +12396,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="260"/>
-      <c r="N57" s="269"/>
+      <c r="M57" s="272"/>
+      <c r="N57" s="251"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -12468,29 +12471,29 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="270" t="s">
+      <c r="H61" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="271"/>
+      <c r="I61" s="253"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="272">
+      <c r="K61" s="254">
         <f>I59+L59</f>
         <v>4723.5599999999995</v>
       </c>
-      <c r="L61" s="273"/>
-      <c r="M61" s="274">
+      <c r="L61" s="255"/>
+      <c r="M61" s="256">
         <f>N56+M56</f>
         <v>91781</v>
       </c>
-      <c r="N61" s="275"/>
+      <c r="N61" s="257"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="281"/>
+      <c r="E62" s="263"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
         <v>70157.13</v>
@@ -12501,20 +12504,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="276"/>
-      <c r="E63" s="276"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="258"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="277" t="s">
+      <c r="I63" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="278"/>
-      <c r="K63" s="279">
+      <c r="J63" s="260"/>
+      <c r="K63" s="261">
         <f>F65+F66+F67</f>
         <v>70157.13</v>
       </c>
-      <c r="L63" s="280"/>
+      <c r="L63" s="262"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -12545,11 +12548,11 @@
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="261">
+      <c r="K65" s="243">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="262"/>
+      <c r="L65" s="244"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -12562,22 +12565,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="263" t="s">
+      <c r="D67" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="264"/>
+      <c r="E67" s="246"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="265" t="s">
+      <c r="I67" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="266"/>
-      <c r="K67" s="267">
+      <c r="J67" s="248"/>
+      <c r="K67" s="249">
         <f>K63+K65</f>
         <v>70157.13</v>
       </c>
-      <c r="L67" s="267"/>
+      <c r="L67" s="249"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -12705,6 +12708,18 @@
     <sortCondition ref="B38:B56"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12715,18 +12730,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12742,8 +12745,8 @@
   </sheetPr>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12769,31 +12772,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="264"/>
+      <c r="C1" s="266" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
+      <c r="B2" s="265"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -12804,21 +12807,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="269"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="270"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="273" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12831,14 +12834,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="276"/>
+      <c r="H4" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="278"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12848,11 +12851,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="279" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="280"/>
+      <c r="R4" s="274"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -13730,30 +13733,38 @@
       <c r="B22" s="21">
         <v>45095</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="22">
+        <v>192</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="E22" s="24">
         <v>45095</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="25">
+        <v>6669</v>
+      </c>
       <c r="G22" s="205"/>
       <c r="H22" s="27">
         <v>45095</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="28">
+        <v>0</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="43"/>
       <c r="L22" s="57"/>
       <c r="M22" s="30">
-        <v>0</v>
+        <v>4320</v>
       </c>
       <c r="N22" s="31">
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="O22" s="241"/>
       <c r="P22" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6669</v>
       </c>
       <c r="Q22" s="34">
         <f t="shared" si="0"/>
@@ -13763,24 +13774,34 @@
         <v>0</v>
       </c>
       <c r="S22" s="237"/>
-      <c r="T22" s="34"/>
+      <c r="T22" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21">
         <v>45096</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="22">
+        <v>7536</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E23" s="24">
         <v>45096</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25">
+        <v>9735</v>
+      </c>
       <c r="G23" s="205"/>
       <c r="H23" s="27">
         <v>45096</v>
       </c>
-      <c r="I23" s="28"/>
+      <c r="I23" s="28">
+        <v>80</v>
+      </c>
       <c r="J23" s="58"/>
       <c r="K23" s="59"/>
       <c r="L23" s="47"/>
@@ -13788,12 +13809,12 @@
         <v>0</v>
       </c>
       <c r="N23" s="31">
-        <v>0</v>
+        <v>2119</v>
       </c>
       <c r="O23" s="241"/>
       <c r="P23" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9735</v>
       </c>
       <c r="Q23" s="34">
         <f t="shared" si="0"/>
@@ -14914,21 +14935,21 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="259">
+      <c r="M56" s="271">
         <f>SUM(M5:M48)</f>
-        <v>20802</v>
-      </c>
-      <c r="N56" s="268">
+        <v>25122</v>
+      </c>
+      <c r="N56" s="250">
         <f>SUM(N5:N48)</f>
-        <v>33131</v>
+        <v>37407</v>
       </c>
       <c r="P56" s="100">
         <f t="shared" si="1"/>
-        <v>53933</v>
+        <v>62529</v>
       </c>
       <c r="Q56" s="100">
         <f t="shared" si="1"/>
-        <v>53933</v>
+        <v>62529</v>
       </c>
       <c r="R56" s="101">
         <f>SUM(R5:R48)</f>
@@ -14950,8 +14971,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="260"/>
-      <c r="N57" s="269"/>
+      <c r="M57" s="272"/>
+      <c r="N57" s="251"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -14983,7 +15004,7 @@
       </c>
       <c r="C59" s="122">
         <f>SUM(C5:C58)</f>
-        <v>68651</v>
+        <v>76379</v>
       </c>
       <c r="D59" s="219"/>
       <c r="E59" s="124" t="s">
@@ -14991,7 +15012,7 @@
       </c>
       <c r="F59" s="125">
         <f>SUM(F5:F58)</f>
-        <v>126563</v>
+        <v>142967</v>
       </c>
       <c r="G59" s="123"/>
       <c r="H59" s="126" t="s">
@@ -14999,7 +15020,7 @@
       </c>
       <c r="I59" s="127">
         <f>SUM(I5:I58)</f>
-        <v>3333</v>
+        <v>3413</v>
       </c>
       <c r="J59" s="128"/>
       <c r="K59" s="129" t="s">
@@ -15025,32 +15046,32 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="270" t="s">
+      <c r="H61" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="271"/>
+      <c r="I61" s="253"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="272">
+      <c r="K61" s="254">
         <f>I59+L59</f>
-        <v>3333</v>
-      </c>
-      <c r="L61" s="273"/>
-      <c r="M61" s="274">
+        <v>3413</v>
+      </c>
+      <c r="L61" s="255"/>
+      <c r="M61" s="256">
         <f>N56+M56</f>
-        <v>53933</v>
-      </c>
-      <c r="N61" s="275"/>
+        <v>62529</v>
+      </c>
+      <c r="N61" s="257"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="281"/>
+      <c r="E62" s="263"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
-        <v>54579</v>
+        <v>63175</v>
       </c>
       <c r="I62" s="137"/>
       <c r="J62" s="138"/>
@@ -15058,20 +15079,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="276"/>
-      <c r="E63" s="276"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="258"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="277" t="s">
+      <c r="I63" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="278"/>
-      <c r="K63" s="279">
+      <c r="J63" s="260"/>
+      <c r="K63" s="261">
         <f>F65+F66+F67</f>
-        <v>54579</v>
-      </c>
-      <c r="L63" s="280"/>
+        <v>63175</v>
+      </c>
+      <c r="L63" s="262"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -15095,18 +15116,18 @@
       </c>
       <c r="F65" s="131">
         <f>SUM(F62:F64)</f>
-        <v>54579</v>
+        <v>63175</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="146" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="261">
+      <c r="K65" s="243">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="262"/>
+      <c r="L65" s="244"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -15119,22 +15140,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="263" t="s">
+      <c r="D67" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="264"/>
+      <c r="E67" s="246"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="265" t="s">
+      <c r="I67" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="266"/>
-      <c r="K67" s="267">
+      <c r="J67" s="248"/>
+      <c r="K67" s="249">
         <f>K63+K65</f>
-        <v>54579</v>
-      </c>
-      <c r="L67" s="267"/>
+        <v>63175</v>
+      </c>
+      <c r="L67" s="249"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -15259,6 +15280,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15269,18 +15302,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="84">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -484,6 +484,36 @@
   </si>
   <si>
     <t>Tortillas</t>
+  </si>
+  <si>
+    <t>Dev. al cliente</t>
+  </si>
+  <si>
+    <t>SIN BAUCHER  de  $ 220.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUEVO </t>
+  </si>
+  <si>
+    <t>OBLEAS</t>
+  </si>
+  <si>
+    <t>NOMINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN CAJA </t>
+  </si>
+  <si>
+    <t>JITOMATE</t>
+  </si>
+  <si>
+    <t>COMISION BANCO</t>
   </si>
 </sst>
 </file>
@@ -903,7 +933,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,6 +1006,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="73">
     <border>
@@ -1898,7 +1934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2366,6 +2402,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2429,60 +2519,6 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2495,6 +2531,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2504,6 +2546,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF99FF33"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF9966FF"/>
@@ -4575,31 +4618,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="264"/>
-      <c r="C1" s="266" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="265"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -4608,21 +4651,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="269"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4635,14 +4678,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="H4" s="277" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="278"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4652,11 +4695,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="280"/>
-      <c r="R4" s="274"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6486,11 +6529,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="271">
+      <c r="M45" s="259">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="250">
+      <c r="N45" s="268">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -6522,8 +6565,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="272"/>
-      <c r="N46" s="251"/>
+      <c r="M46" s="260"/>
+      <c r="N46" s="269"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -6615,29 +6658,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="252" t="s">
+      <c r="H51" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="253"/>
+      <c r="I51" s="271"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="254">
+      <c r="K51" s="272">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="255"/>
-      <c r="M51" s="256">
+      <c r="L51" s="273"/>
+      <c r="M51" s="274">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="257"/>
+      <c r="N51" s="275"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="263" t="s">
+      <c r="D52" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="263"/>
+      <c r="E52" s="281"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -6648,20 +6691,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="258"/>
-      <c r="E53" s="258"/>
+      <c r="D53" s="276"/>
+      <c r="E53" s="276"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="259" t="s">
+      <c r="I53" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="260"/>
-      <c r="K53" s="261">
+      <c r="J53" s="278"/>
+      <c r="K53" s="279">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="262"/>
+      <c r="L53" s="280"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -6692,11 +6735,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="243">
+      <c r="K55" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="244"/>
+      <c r="L55" s="262"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -6709,22 +6752,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="245" t="s">
+      <c r="D57" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="246"/>
+      <c r="E57" s="264"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="247" t="s">
+      <c r="I57" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="248"/>
-      <c r="K57" s="249">
+      <c r="J57" s="266"/>
+      <c r="K57" s="267">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="249"/>
+      <c r="L57" s="267"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -6849,16 +6892,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6871,6 +6904,16 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6916,31 +6959,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="264"/>
-      <c r="C1" s="266" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="265"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6951,21 +6994,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="269"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6978,14 +7021,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="H4" s="277" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="278"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -6995,11 +7038,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="280"/>
-      <c r="R4" s="274"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9538,11 +9581,11 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="271">
+      <c r="M63" s="259">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
-      <c r="N63" s="250">
+      <c r="N63" s="268">
         <f>SUM(N5:N48)</f>
         <v>46604</v>
       </c>
@@ -9574,8 +9617,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="272"/>
-      <c r="N64" s="251"/>
+      <c r="M64" s="260"/>
+      <c r="N64" s="269"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -9667,29 +9710,29 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="252" t="s">
+      <c r="H69" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="253"/>
+      <c r="I69" s="271"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="254">
+      <c r="K69" s="272">
         <f>I67+L67</f>
         <v>6435</v>
       </c>
-      <c r="L69" s="255"/>
-      <c r="M69" s="256">
+      <c r="L69" s="273"/>
+      <c r="M69" s="274">
         <f>N63+M63</f>
         <v>135236</v>
       </c>
-      <c r="N69" s="257"/>
+      <c r="N69" s="275"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="263" t="s">
+      <c r="D70" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="263"/>
+      <c r="E70" s="281"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
         <v>65323.966999999975</v>
@@ -9700,20 +9743,20 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="258"/>
-      <c r="E71" s="258"/>
+      <c r="D71" s="276"/>
+      <c r="E71" s="276"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="259" t="s">
+      <c r="I71" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="260"/>
-      <c r="K71" s="261">
+      <c r="J71" s="278"/>
+      <c r="K71" s="279">
         <f>F73+F74+F75</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L71" s="262"/>
+      <c r="L71" s="280"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
@@ -9744,11 +9787,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="243">
+      <c r="K73" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="244"/>
+      <c r="L73" s="262"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="148" t="s">
@@ -9761,22 +9804,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="245" t="s">
+      <c r="D75" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="246"/>
+      <c r="E75" s="264"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="247" t="s">
+      <c r="I75" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="248"/>
-      <c r="K75" s="249">
+      <c r="J75" s="266"/>
+      <c r="K75" s="267">
         <f>K71+K73</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L75" s="249"/>
+      <c r="L75" s="267"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -9901,18 +9944,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9923,6 +9954,18 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9965,31 +10008,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="264"/>
-      <c r="C1" s="266" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="265"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -10000,21 +10043,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="269"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10027,14 +10070,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="H4" s="277" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="278"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10044,11 +10087,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="280"/>
-      <c r="R4" s="274"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -12360,11 +12403,11 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="271">
+      <c r="M56" s="259">
         <f>SUM(M5:M48)</f>
         <v>41580</v>
       </c>
-      <c r="N56" s="250">
+      <c r="N56" s="268">
         <f>SUM(N5:N48)</f>
         <v>50201</v>
       </c>
@@ -12396,8 +12439,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="272"/>
-      <c r="N57" s="251"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="269"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -12471,29 +12514,29 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="252" t="s">
+      <c r="H61" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="253"/>
+      <c r="I61" s="271"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="254">
+      <c r="K61" s="272">
         <f>I59+L59</f>
         <v>4723.5599999999995</v>
       </c>
-      <c r="L61" s="255"/>
-      <c r="M61" s="256">
+      <c r="L61" s="273"/>
+      <c r="M61" s="274">
         <f>N56+M56</f>
         <v>91781</v>
       </c>
-      <c r="N61" s="257"/>
+      <c r="N61" s="275"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="263" t="s">
+      <c r="D62" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="263"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
         <v>70157.13</v>
@@ -12504,20 +12547,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="276"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="259" t="s">
+      <c r="I63" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="260"/>
-      <c r="K63" s="261">
+      <c r="J63" s="278"/>
+      <c r="K63" s="279">
         <f>F65+F66+F67</f>
         <v>70157.13</v>
       </c>
-      <c r="L63" s="262"/>
+      <c r="L63" s="280"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -12548,11 +12591,11 @@
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="243">
+      <c r="K65" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="244"/>
+      <c r="L65" s="262"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -12565,22 +12608,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="245" t="s">
+      <c r="D67" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="246"/>
+      <c r="E67" s="264"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="247" t="s">
+      <c r="I67" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="248"/>
-      <c r="K67" s="249">
+      <c r="J67" s="266"/>
+      <c r="K67" s="267">
         <f>K63+K65</f>
         <v>70157.13</v>
       </c>
-      <c r="L67" s="249"/>
+      <c r="L67" s="267"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -12708,18 +12751,6 @@
     <sortCondition ref="B38:B56"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12730,6 +12761,18 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12745,8 +12788,8 @@
   </sheetPr>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12772,31 +12815,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="264"/>
-      <c r="C1" s="266" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="265"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -12807,21 +12850,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="269"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="270"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="243" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12834,14 +12877,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="275" t="s">
+      <c r="E4" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="276"/>
-      <c r="H4" s="277" t="s">
+      <c r="F4" s="246"/>
+      <c r="H4" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="278"/>
+      <c r="I4" s="248"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12851,11 +12894,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="280"/>
-      <c r="R4" s="274"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="244"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -13824,24 +13867,34 @@
         <v>0</v>
       </c>
       <c r="S23" s="237"/>
-      <c r="T23" s="34"/>
+      <c r="T23" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="21">
         <v>45097</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="22">
+        <v>4280</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E24" s="24">
         <v>45097</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25">
+        <v>5860</v>
+      </c>
       <c r="G24" s="205"/>
       <c r="H24" s="27">
         <v>45097</v>
       </c>
-      <c r="I24" s="28"/>
+      <c r="I24" s="28">
+        <v>80</v>
+      </c>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
       <c r="L24" s="62"/>
@@ -13849,12 +13902,12 @@
         <v>0</v>
       </c>
       <c r="N24" s="31">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O24" s="241"/>
       <c r="P24" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5860</v>
       </c>
       <c r="Q24" s="34">
         <f t="shared" si="0"/>
@@ -13864,37 +13917,47 @@
         <v>0</v>
       </c>
       <c r="S24" s="237"/>
-      <c r="T24" s="34"/>
+      <c r="T24" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="21">
         <v>45098</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="22">
+        <v>3500</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E25" s="24">
         <v>45098</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25">
+        <v>6590</v>
+      </c>
       <c r="G25" s="205"/>
       <c r="H25" s="27">
         <v>45098</v>
       </c>
-      <c r="I25" s="28"/>
+      <c r="I25" s="28">
+        <v>60</v>
+      </c>
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
       <c r="L25" s="65"/>
       <c r="M25" s="30">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="N25" s="31">
-        <v>0</v>
+        <v>2889</v>
       </c>
       <c r="O25" s="241"/>
       <c r="P25" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6590</v>
       </c>
       <c r="Q25" s="34">
         <f t="shared" si="0"/>
@@ -13904,37 +13967,53 @@
         <v>0</v>
       </c>
       <c r="S25" s="237"/>
-      <c r="T25" s="34"/>
+      <c r="T25" s="34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="21">
         <v>45099</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="22">
+        <v>4352</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E26" s="24">
         <v>45099</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="25">
+        <v>5972</v>
+      </c>
       <c r="G26" s="205"/>
       <c r="H26" s="27">
         <v>45099</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="47"/>
+      <c r="I26" s="28">
+        <v>410</v>
+      </c>
+      <c r="J26" s="37">
+        <v>45099</v>
+      </c>
+      <c r="K26" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="47">
+        <v>100</v>
+      </c>
       <c r="M26" s="30">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="N26" s="31">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="O26" s="241"/>
       <c r="P26" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5972</v>
       </c>
       <c r="Q26" s="34">
         <f t="shared" si="0"/>
@@ -13944,39 +14023,49 @@
         <v>0</v>
       </c>
       <c r="S26" s="237"/>
-      <c r="T26" s="34"/>
+      <c r="T26" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="21">
         <v>45100</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="22">
+        <v>5174</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E27" s="24">
         <v>45100</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>7248</v>
+      </c>
       <c r="G27" s="205"/>
       <c r="H27" s="27">
         <v>45100</v>
       </c>
-      <c r="I27" s="28"/>
+      <c r="I27" s="28">
+        <v>120</v>
+      </c>
       <c r="J27" s="66"/>
       <c r="K27" s="67"/>
       <c r="L27" s="65"/>
       <c r="M27" s="30">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="N27" s="31">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="O27" s="241" t="s">
         <v>62</v>
       </c>
       <c r="P27" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7248</v>
       </c>
       <c r="Q27" s="34">
         <f t="shared" si="0"/>
@@ -13986,37 +14075,47 @@
         <v>0</v>
       </c>
       <c r="S27" s="237"/>
-      <c r="T27" s="34"/>
+      <c r="T27" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="21">
         <v>45101</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="22">
+        <v>5325</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>0</v>
+      </c>
       <c r="E28" s="24">
         <v>45101</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25">
+        <v>6933</v>
+      </c>
       <c r="G28" s="205"/>
       <c r="H28" s="27">
         <v>45101</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="28">
+        <v>80</v>
+      </c>
       <c r="J28" s="68"/>
       <c r="K28" s="69"/>
       <c r="L28" s="65"/>
       <c r="M28" s="30">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="N28" s="31">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="O28" s="241"/>
       <c r="P28" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6933</v>
       </c>
       <c r="Q28" s="34">
         <f t="shared" si="0"/>
@@ -14026,77 +14125,99 @@
         <v>0</v>
       </c>
       <c r="S28" s="237"/>
-      <c r="T28" s="34"/>
+      <c r="T28" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="21">
         <v>45102</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="22">
+        <v>160</v>
+      </c>
+      <c r="D29" s="195" t="s">
+        <v>73</v>
+      </c>
       <c r="E29" s="24">
         <v>45102</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25">
+        <v>6112</v>
+      </c>
       <c r="G29" s="205"/>
       <c r="H29" s="27">
         <v>45102</v>
       </c>
-      <c r="I29" s="28"/>
+      <c r="I29" s="28">
+        <v>43</v>
+      </c>
       <c r="J29" s="66"/>
       <c r="K29" s="71"/>
       <c r="L29" s="65"/>
       <c r="M29" s="30">
-        <v>0</v>
+        <v>3507</v>
       </c>
       <c r="N29" s="31">
-        <v>0</v>
+        <v>2562</v>
       </c>
       <c r="O29" s="241"/>
       <c r="P29" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6272</v>
       </c>
       <c r="Q29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="R29" s="48">
         <v>0</v>
       </c>
-      <c r="S29" s="237"/>
-      <c r="T29" s="34"/>
+      <c r="S29" s="237" t="s">
+        <v>75</v>
+      </c>
+      <c r="T29" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="21">
         <v>45103</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="195"/>
+      <c r="C30" s="22">
+        <v>5632</v>
+      </c>
+      <c r="D30" s="195" t="s">
+        <v>0</v>
+      </c>
       <c r="E30" s="24">
         <v>45103</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="25">
+        <v>10314</v>
+      </c>
       <c r="G30" s="205"/>
       <c r="H30" s="27">
         <v>45103</v>
       </c>
-      <c r="I30" s="28"/>
+      <c r="I30" s="28">
+        <v>348</v>
+      </c>
       <c r="J30" s="68"/>
       <c r="K30" s="43"/>
       <c r="L30" s="39"/>
       <c r="M30" s="30">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N30" s="31">
-        <v>0</v>
+        <v>4178</v>
       </c>
       <c r="O30" s="241"/>
       <c r="P30" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10314</v>
       </c>
       <c r="Q30" s="34">
         <f t="shared" si="0"/>
@@ -14106,37 +14227,47 @@
         <v>0</v>
       </c>
       <c r="S30" s="237"/>
-      <c r="T30" s="34"/>
+      <c r="T30" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="21">
         <v>45104</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="22">
+        <v>6187</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E31" s="24">
         <v>45104</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="25">
+        <v>9403</v>
+      </c>
       <c r="G31" s="205"/>
       <c r="H31" s="27">
         <v>45104</v>
       </c>
-      <c r="I31" s="28"/>
+      <c r="I31" s="28">
+        <v>410</v>
+      </c>
       <c r="J31" s="68"/>
       <c r="K31" s="210"/>
       <c r="L31" s="65"/>
       <c r="M31" s="30">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="N31" s="31">
-        <v>0</v>
+        <v>2517</v>
       </c>
       <c r="O31" s="241"/>
       <c r="P31" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9403</v>
       </c>
       <c r="Q31" s="34">
         <f t="shared" si="0"/>
@@ -14146,37 +14277,47 @@
         <v>0</v>
       </c>
       <c r="S31" s="237"/>
-      <c r="T31" s="34"/>
+      <c r="T31" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="21">
         <v>45105</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="22">
+        <v>5406</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E32" s="24">
         <v>45105</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="25">
+        <v>7896</v>
+      </c>
       <c r="G32" s="205"/>
       <c r="H32" s="27">
         <v>45105</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="28">
+        <v>155</v>
+      </c>
       <c r="J32" s="68"/>
       <c r="K32" s="43"/>
       <c r="L32" s="39"/>
       <c r="M32" s="30">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="N32" s="31">
-        <v>0</v>
+        <v>2087</v>
       </c>
       <c r="O32" s="241"/>
       <c r="P32" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7896</v>
       </c>
       <c r="Q32" s="34">
         <f t="shared" si="0"/>
@@ -14185,38 +14326,50 @@
       <c r="R32" s="48">
         <v>0</v>
       </c>
-      <c r="S32" s="237"/>
-      <c r="T32" s="34"/>
+      <c r="S32" s="237" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32" s="34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="33" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="21">
         <v>45106</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="22">
+        <v>3836</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E33" s="24">
         <v>45106</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="25">
+        <v>6247</v>
+      </c>
       <c r="G33" s="205"/>
       <c r="H33" s="27">
         <v>45106</v>
       </c>
-      <c r="I33" s="28"/>
+      <c r="I33" s="28">
+        <v>60</v>
+      </c>
       <c r="J33" s="68"/>
       <c r="K33" s="210"/>
       <c r="L33" s="102"/>
       <c r="M33" s="30">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="N33" s="31">
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="O33" s="241"/>
       <c r="P33" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6247</v>
       </c>
       <c r="Q33" s="34">
         <f t="shared" si="0"/>
@@ -14226,37 +14379,47 @@
         <v>0</v>
       </c>
       <c r="S33" s="237"/>
-      <c r="T33" s="230"/>
+      <c r="T33" s="230" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="21">
         <v>45107</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="22">
+        <v>3647</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="E34" s="24">
         <v>45107</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="25">
+        <v>5487</v>
+      </c>
       <c r="G34" s="205"/>
       <c r="H34" s="27">
         <v>45107</v>
       </c>
-      <c r="I34" s="28"/>
+      <c r="I34" s="28">
+        <v>223</v>
+      </c>
       <c r="J34" s="68"/>
       <c r="K34" s="211"/>
       <c r="L34" s="9"/>
       <c r="M34" s="30">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="N34" s="31">
-        <v>0</v>
+        <v>1486</v>
       </c>
       <c r="O34" s="241"/>
       <c r="P34" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5487</v>
       </c>
       <c r="Q34" s="34">
         <f t="shared" si="0"/>
@@ -14266,6 +14429,9 @@
         <v>0</v>
       </c>
       <c r="S34" s="237"/>
+      <c r="T34" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
@@ -14335,17 +14501,29 @@
     </row>
     <row r="37" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
-      <c r="B37" s="204"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="204">
+        <v>45083</v>
+      </c>
+      <c r="C37" s="201">
+        <v>2245.11</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>78</v>
+      </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25"/>
       <c r="G37" s="205"/>
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="214"/>
-      <c r="L37" s="102"/>
+      <c r="J37" s="68">
+        <v>45078</v>
+      </c>
+      <c r="K37" s="214" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="102">
+        <v>686.43</v>
+      </c>
       <c r="M37" s="30">
         <v>0</v>
       </c>
@@ -14367,17 +14545,29 @@
     </row>
     <row r="38" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
-      <c r="B38" s="204"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="79"/>
+      <c r="B38" s="204">
+        <v>45086</v>
+      </c>
+      <c r="C38" s="201">
+        <v>462</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>79</v>
+      </c>
       <c r="E38" s="24"/>
       <c r="F38" s="25"/>
       <c r="G38" s="205"/>
       <c r="H38" s="27"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="210"/>
-      <c r="L38" s="102"/>
+      <c r="J38" s="68">
+        <v>45082</v>
+      </c>
+      <c r="K38" s="210" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="102">
+        <v>8015</v>
+      </c>
       <c r="M38" s="30">
         <v>0</v>
       </c>
@@ -14399,17 +14589,29 @@
     </row>
     <row r="39" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
-      <c r="B39" s="204"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="79"/>
+      <c r="B39" s="204">
+        <v>45086</v>
+      </c>
+      <c r="C39" s="201">
+        <v>620</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>79</v>
+      </c>
       <c r="E39" s="24"/>
       <c r="F39" s="25"/>
       <c r="G39" s="205"/>
       <c r="H39" s="27"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39"/>
+      <c r="J39" s="68">
+        <v>45089</v>
+      </c>
+      <c r="K39" s="286" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" s="39">
+        <v>7540.91</v>
+      </c>
       <c r="M39" s="30">
         <v>0</v>
       </c>
@@ -14429,17 +14631,29 @@
     </row>
     <row r="40" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
-      <c r="B40" s="204"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="79"/>
+      <c r="B40" s="204">
+        <v>45089</v>
+      </c>
+      <c r="C40" s="201">
+        <v>1400</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>31</v>
+      </c>
       <c r="E40" s="24"/>
       <c r="F40" s="25"/>
       <c r="G40" s="205"/>
       <c r="H40" s="27"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="39"/>
+      <c r="J40" s="68">
+        <v>45101</v>
+      </c>
+      <c r="K40" s="286" t="s">
+        <v>80</v>
+      </c>
+      <c r="L40" s="39">
+        <v>7540.96</v>
+      </c>
       <c r="M40" s="30">
         <v>0</v>
       </c>
@@ -14459,17 +14673,29 @@
     </row>
     <row r="41" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="79"/>
+      <c r="B41" s="204">
+        <v>45091</v>
+      </c>
+      <c r="C41" s="201">
+        <v>3650.5</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>65</v>
+      </c>
       <c r="E41" s="24"/>
       <c r="F41" s="25"/>
       <c r="G41" s="205"/>
       <c r="H41" s="27"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="210"/>
-      <c r="L41" s="39"/>
+      <c r="J41" s="68">
+        <v>45105</v>
+      </c>
+      <c r="K41" s="210" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="39">
+        <v>686.43</v>
+      </c>
       <c r="M41" s="30">
         <v>0</v>
       </c>
@@ -14489,16 +14715,26 @@
     </row>
     <row r="42" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="201"/>
-      <c r="D42" s="79"/>
+      <c r="B42" s="204">
+        <v>45093</v>
+      </c>
+      <c r="C42" s="201">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>31</v>
+      </c>
       <c r="E42" s="24"/>
       <c r="F42" s="25"/>
       <c r="G42" s="205"/>
       <c r="H42" s="27"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="210"/>
+      <c r="J42" s="68">
+        <v>45107</v>
+      </c>
+      <c r="K42" s="287" t="s">
+        <v>83</v>
+      </c>
       <c r="L42" s="39"/>
       <c r="M42" s="30">
         <v>0</v>
@@ -14519,9 +14755,15 @@
     </row>
     <row r="43" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="79"/>
+      <c r="B43" s="204">
+        <v>45093</v>
+      </c>
+      <c r="C43" s="201">
+        <v>1020</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>81</v>
+      </c>
       <c r="E43" s="24"/>
       <c r="F43" s="25"/>
       <c r="G43" s="205"/>
@@ -14549,9 +14791,15 @@
     </row>
     <row r="44" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
-      <c r="B44" s="204"/>
-      <c r="C44" s="201"/>
-      <c r="D44" s="79"/>
+      <c r="B44" s="204">
+        <v>45101</v>
+      </c>
+      <c r="C44" s="201">
+        <v>666.56</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>64</v>
+      </c>
       <c r="E44" s="24"/>
       <c r="F44" s="25"/>
       <c r="G44" s="205"/>
@@ -14579,9 +14827,15 @@
     </row>
     <row r="45" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="201"/>
-      <c r="D45" s="79"/>
+      <c r="B45" s="204">
+        <v>45101</v>
+      </c>
+      <c r="C45" s="201">
+        <v>2518.5</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>65</v>
+      </c>
       <c r="E45" s="24"/>
       <c r="F45" s="25"/>
       <c r="G45" s="205"/>
@@ -14609,9 +14863,15 @@
     </row>
     <row r="46" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
-      <c r="B46" s="204"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="79"/>
+      <c r="B46" s="204">
+        <v>45105</v>
+      </c>
+      <c r="C46" s="201">
+        <v>338</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>79</v>
+      </c>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="205"/>
@@ -14639,9 +14899,15 @@
     </row>
     <row r="47" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20"/>
-      <c r="B47" s="204"/>
-      <c r="C47" s="201"/>
-      <c r="D47" s="79"/>
+      <c r="B47" s="204">
+        <v>45105</v>
+      </c>
+      <c r="C47" s="201">
+        <v>1441.45</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>64</v>
+      </c>
       <c r="E47" s="24"/>
       <c r="F47" s="25"/>
       <c r="G47" s="205"/>
@@ -14669,9 +14935,15 @@
     </row>
     <row r="48" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="201"/>
-      <c r="D48" s="79"/>
+      <c r="B48" s="204">
+        <v>45106</v>
+      </c>
+      <c r="C48" s="201">
+        <v>600</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>81</v>
+      </c>
       <c r="E48" s="24"/>
       <c r="F48" s="25"/>
       <c r="G48" s="205"/>
@@ -14699,9 +14971,15 @@
     </row>
     <row r="49" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
-      <c r="B49" s="204"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="79"/>
+      <c r="B49" s="204">
+        <v>45106</v>
+      </c>
+      <c r="C49" s="201">
+        <v>510</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>82</v>
+      </c>
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
       <c r="G49" s="205"/>
@@ -14935,21 +15213,21 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="271">
+      <c r="M56" s="259">
         <f>SUM(M5:M48)</f>
-        <v>25122</v>
-      </c>
-      <c r="N56" s="250">
+        <v>32186</v>
+      </c>
+      <c r="N56" s="268">
         <f>SUM(N5:N48)</f>
-        <v>37407</v>
+        <v>58977</v>
       </c>
       <c r="P56" s="100">
         <f t="shared" si="1"/>
-        <v>62529</v>
+        <v>91163</v>
       </c>
       <c r="Q56" s="100">
         <f t="shared" si="1"/>
-        <v>62529</v>
+        <v>91163</v>
       </c>
       <c r="R56" s="101">
         <f>SUM(R5:R48)</f>
@@ -14971,8 +15249,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="272"/>
-      <c r="N57" s="251"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="269"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -15004,7 +15282,7 @@
       </c>
       <c r="C59" s="122">
         <f>SUM(C5:C58)</f>
-        <v>76379</v>
+        <v>140350.12</v>
       </c>
       <c r="D59" s="219"/>
       <c r="E59" s="124" t="s">
@@ -15012,7 +15290,7 @@
       </c>
       <c r="F59" s="125">
         <f>SUM(F5:F58)</f>
-        <v>142967</v>
+        <v>221029</v>
       </c>
       <c r="G59" s="123"/>
       <c r="H59" s="126" t="s">
@@ -15020,7 +15298,7 @@
       </c>
       <c r="I59" s="127">
         <f>SUM(I5:I58)</f>
-        <v>3413</v>
+        <v>5402</v>
       </c>
       <c r="J59" s="128"/>
       <c r="K59" s="129" t="s">
@@ -15028,7 +15306,7 @@
       </c>
       <c r="L59" s="130">
         <f>SUM(L5:L58)</f>
-        <v>0</v>
+        <v>24569.73</v>
       </c>
       <c r="M59" s="131"/>
       <c r="N59" s="131"/>
@@ -15046,32 +15324,32 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="252" t="s">
+      <c r="H61" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="253"/>
+      <c r="I61" s="271"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="254">
+      <c r="K61" s="272">
         <f>I59+L59</f>
-        <v>3413</v>
-      </c>
-      <c r="L61" s="255"/>
-      <c r="M61" s="256">
+        <v>29971.73</v>
+      </c>
+      <c r="L61" s="273"/>
+      <c r="M61" s="274">
         <f>N56+M56</f>
-        <v>62529</v>
-      </c>
-      <c r="N61" s="257"/>
+        <v>91163</v>
+      </c>
+      <c r="N61" s="275"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="263" t="s">
+      <c r="D62" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="263"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
-        <v>63175</v>
+        <v>50707.149999999994</v>
       </c>
       <c r="I62" s="137"/>
       <c r="J62" s="138"/>
@@ -15079,20 +15357,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
+      <c r="D63" s="276"/>
+      <c r="E63" s="276"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="259" t="s">
+      <c r="I63" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="260"/>
-      <c r="K63" s="261">
+      <c r="J63" s="278"/>
+      <c r="K63" s="279">
         <f>F65+F66+F67</f>
-        <v>63175</v>
-      </c>
-      <c r="L63" s="262"/>
+        <v>50707.149999999994</v>
+      </c>
+      <c r="L63" s="280"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -15116,18 +15394,18 @@
       </c>
       <c r="F65" s="131">
         <f>SUM(F62:F64)</f>
-        <v>63175</v>
+        <v>50707.149999999994</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="146" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="243">
+      <c r="K65" s="261">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="244"/>
+      <c r="L65" s="262"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -15140,22 +15418,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="245" t="s">
+      <c r="D67" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="246"/>
+      <c r="E67" s="264"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="247" t="s">
+      <c r="I67" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="248"/>
-      <c r="K67" s="249">
+      <c r="J67" s="266"/>
+      <c r="K67" s="267">
         <f>K63+K65</f>
-        <v>63175</v>
-      </c>
-      <c r="L67" s="249"/>
+        <v>50707.149999999994</v>
+      </c>
+      <c r="L67" s="267"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -15280,18 +15558,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15302,6 +15568,18 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  VERDURAS   Junio     2023.xlsx
@@ -1934,7 +1934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2402,59 +2402,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2519,6 +2471,60 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2531,12 +2537,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4618,31 +4623,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="266"/>
+      <c r="C1" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="253"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
       <c r="K2" s="176" t="s">
         <v>29</v>
       </c>
@@ -4651,21 +4656,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="271"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="272"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="275" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4678,14 +4683,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="278"/>
+      <c r="H4" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4695,11 +4700,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="276"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6529,11 +6534,11 @@
       <c r="J45" s="72"/>
       <c r="K45" s="99"/>
       <c r="L45" s="74"/>
-      <c r="M45" s="259">
+      <c r="M45" s="273">
         <f>SUM(M5:M39)</f>
         <v>64841</v>
       </c>
-      <c r="N45" s="268">
+      <c r="N45" s="252">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -6565,8 +6570,8 @@
       <c r="J46" s="72"/>
       <c r="K46" s="104"/>
       <c r="L46" s="74"/>
-      <c r="M46" s="260"/>
-      <c r="N46" s="269"/>
+      <c r="M46" s="274"/>
+      <c r="N46" s="253"/>
       <c r="P46" s="96"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -6658,29 +6663,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="270" t="s">
+      <c r="H51" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="271"/>
+      <c r="I51" s="255"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="272">
+      <c r="K51" s="256">
         <f>I49+L49</f>
         <v>5219.28</v>
       </c>
-      <c r="L51" s="273"/>
-      <c r="M51" s="274">
+      <c r="L51" s="257"/>
+      <c r="M51" s="258">
         <f>N45+M45</f>
         <v>64841</v>
       </c>
-      <c r="N51" s="275"/>
+      <c r="N51" s="259"/>
       <c r="P51" s="96"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="281" t="s">
+      <c r="D52" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="281"/>
+      <c r="E52" s="265"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>46856.369999999995</v>
@@ -6691,20 +6696,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="276"/>
-      <c r="E53" s="276"/>
+      <c r="D53" s="260"/>
+      <c r="E53" s="260"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="277" t="s">
+      <c r="I53" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="278"/>
-      <c r="K53" s="279">
+      <c r="J53" s="262"/>
+      <c r="K53" s="263">
         <f>F55+F56+F57</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L53" s="280"/>
+      <c r="L53" s="264"/>
       <c r="P53" s="96"/>
       <c r="Q53" s="9"/>
     </row>
@@ -6735,11 +6740,11 @@
         <v>15</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="261">
+      <c r="K55" s="245">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L55" s="262"/>
+      <c r="L55" s="246"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -6752,22 +6757,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="263" t="s">
+      <c r="D57" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="264"/>
+      <c r="E57" s="248"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="265" t="s">
+      <c r="I57" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="266"/>
-      <c r="K57" s="267">
+      <c r="J57" s="250"/>
+      <c r="K57" s="251">
         <f>K53+K55</f>
         <v>46856.369999999995</v>
       </c>
-      <c r="L57" s="267"/>
+      <c r="L57" s="251"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -6892,6 +6897,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
@@ -6904,16 +6919,6 @@
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6959,31 +6964,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="266"/>
+      <c r="C1" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -6994,21 +6999,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="271"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="272"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="275" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7021,14 +7026,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="170"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="278"/>
+      <c r="H4" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -7038,11 +7043,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="276"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9581,11 +9586,11 @@
       <c r="J63" s="72"/>
       <c r="K63" s="99"/>
       <c r="L63" s="74"/>
-      <c r="M63" s="259">
+      <c r="M63" s="273">
         <f>SUM(M5:M48)</f>
         <v>88632</v>
       </c>
-      <c r="N63" s="268">
+      <c r="N63" s="252">
         <f>SUM(N5:N48)</f>
         <v>46604</v>
       </c>
@@ -9617,8 +9622,8 @@
       <c r="J64" s="72"/>
       <c r="K64" s="104"/>
       <c r="L64" s="74"/>
-      <c r="M64" s="260"/>
-      <c r="N64" s="269"/>
+      <c r="M64" s="274"/>
+      <c r="N64" s="253"/>
       <c r="P64" s="96"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="13">
@@ -9710,29 +9715,29 @@
       <c r="A69" s="133"/>
       <c r="B69" s="134"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="270" t="s">
+      <c r="H69" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="271"/>
+      <c r="I69" s="255"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="272">
+      <c r="K69" s="256">
         <f>I67+L67</f>
         <v>6435</v>
       </c>
-      <c r="L69" s="273"/>
-      <c r="M69" s="274">
+      <c r="L69" s="257"/>
+      <c r="M69" s="258">
         <f>N63+M63</f>
         <v>135236</v>
       </c>
-      <c r="N69" s="275"/>
+      <c r="N69" s="259"/>
       <c r="P69" s="96"/>
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="281" t="s">
+      <c r="D70" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="281"/>
+      <c r="E70" s="265"/>
       <c r="F70" s="136">
         <f>F67-K69-C67</f>
         <v>65323.966999999975</v>
@@ -9743,20 +9748,20 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="276"/>
-      <c r="E71" s="276"/>
+      <c r="D71" s="260"/>
+      <c r="E71" s="260"/>
       <c r="F71" s="131">
         <v>0</v>
       </c>
-      <c r="I71" s="277" t="s">
+      <c r="I71" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="278"/>
-      <c r="K71" s="279">
+      <c r="J71" s="262"/>
+      <c r="K71" s="263">
         <f>F73+F74+F75</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L71" s="280"/>
+      <c r="L71" s="264"/>
       <c r="P71" s="96"/>
       <c r="Q71" s="9"/>
     </row>
@@ -9787,11 +9792,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="147"/>
-      <c r="K73" s="261">
+      <c r="K73" s="245">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L73" s="262"/>
+      <c r="L73" s="246"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="148" t="s">
@@ -9804,22 +9809,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="150"/>
-      <c r="D75" s="263" t="s">
+      <c r="D75" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="264"/>
+      <c r="E75" s="248"/>
       <c r="F75" s="151">
         <v>0</v>
       </c>
-      <c r="I75" s="265" t="s">
+      <c r="I75" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="266"/>
-      <c r="K75" s="267">
+      <c r="J75" s="250"/>
+      <c r="K75" s="251">
         <f>K71+K73</f>
         <v>65323.966999999975</v>
       </c>
-      <c r="L75" s="267"/>
+      <c r="L75" s="251"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="152"/>
@@ -9944,6 +9949,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9954,18 +9971,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10008,31 +10013,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="266"/>
+      <c r="C1" s="268" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -10043,21 +10048,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="271"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="272"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="275" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10070,14 +10075,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="278"/>
+      <c r="H4" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -10087,11 +10092,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="276"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -12403,11 +12408,11 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="259">
+      <c r="M56" s="273">
         <f>SUM(M5:M48)</f>
         <v>41580</v>
       </c>
-      <c r="N56" s="268">
+      <c r="N56" s="252">
         <f>SUM(N5:N48)</f>
         <v>50201</v>
       </c>
@@ -12439,8 +12444,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="260"/>
-      <c r="N57" s="269"/>
+      <c r="M57" s="274"/>
+      <c r="N57" s="253"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -12514,29 +12519,29 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="270" t="s">
+      <c r="H61" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="271"/>
+      <c r="I61" s="255"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="272">
+      <c r="K61" s="256">
         <f>I59+L59</f>
         <v>4723.5599999999995</v>
       </c>
-      <c r="L61" s="273"/>
-      <c r="M61" s="274">
+      <c r="L61" s="257"/>
+      <c r="M61" s="258">
         <f>N56+M56</f>
         <v>91781</v>
       </c>
-      <c r="N61" s="275"/>
+      <c r="N61" s="259"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="281"/>
+      <c r="E62" s="265"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
         <v>70157.13</v>
@@ -12547,20 +12552,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="276"/>
-      <c r="E63" s="276"/>
+      <c r="D63" s="260"/>
+      <c r="E63" s="260"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="277" t="s">
+      <c r="I63" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="278"/>
-      <c r="K63" s="279">
+      <c r="J63" s="262"/>
+      <c r="K63" s="263">
         <f>F65+F66+F67</f>
         <v>70157.13</v>
       </c>
-      <c r="L63" s="280"/>
+      <c r="L63" s="264"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -12591,11 +12596,11 @@
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="261">
+      <c r="K65" s="245">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="262"/>
+      <c r="L65" s="246"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -12608,22 +12613,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="263" t="s">
+      <c r="D67" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="264"/>
+      <c r="E67" s="248"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="265" t="s">
+      <c r="I67" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="266"/>
-      <c r="K67" s="267">
+      <c r="J67" s="250"/>
+      <c r="K67" s="251">
         <f>K63+K65</f>
         <v>70157.13</v>
       </c>
-      <c r="L67" s="267"/>
+      <c r="L67" s="251"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -12751,6 +12756,18 @@
     <sortCondition ref="B38:B56"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12761,18 +12778,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12788,8 +12793,8 @@
   </sheetPr>
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12815,31 +12820,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="266"/>
+      <c r="C1" s="268" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="251" t="s">
+      <c r="F2" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
       <c r="K2" s="197" t="s">
         <v>29</v>
       </c>
@@ -12850,21 +12855,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="271"/>
       <c r="D3" s="2"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="272"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="243" t="s">
+      <c r="R3" s="275" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12877,14 +12882,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="218"/>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="278"/>
+      <c r="H4" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12894,11 +12899,11 @@
       <c r="N4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="249" t="s">
+      <c r="P4" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="244"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="276"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -14504,7 +14509,7 @@
       <c r="B37" s="204">
         <v>45083</v>
       </c>
-      <c r="C37" s="201">
+      <c r="C37" s="289">
         <v>2245.11</v>
       </c>
       <c r="D37" s="78" t="s">
@@ -14521,7 +14526,7 @@
       <c r="K37" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="L37" s="102">
+      <c r="L37" s="288">
         <v>686.43</v>
       </c>
       <c r="M37" s="30">
@@ -14548,7 +14553,7 @@
       <c r="B38" s="204">
         <v>45086</v>
       </c>
-      <c r="C38" s="201">
+      <c r="C38" s="289">
         <v>462</v>
       </c>
       <c r="D38" s="79" t="s">
@@ -14565,7 +14570,7 @@
       <c r="K38" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="102">
+      <c r="L38" s="288">
         <v>8015</v>
       </c>
       <c r="M38" s="30">
@@ -14592,7 +14597,7 @@
       <c r="B39" s="204">
         <v>45086</v>
       </c>
-      <c r="C39" s="201">
+      <c r="C39" s="289">
         <v>620</v>
       </c>
       <c r="D39" s="79" t="s">
@@ -14606,10 +14611,10 @@
       <c r="J39" s="68">
         <v>45089</v>
       </c>
-      <c r="K39" s="286" t="s">
+      <c r="K39" s="243" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="290">
         <v>7540.91</v>
       </c>
       <c r="M39" s="30">
@@ -14634,7 +14639,7 @@
       <c r="B40" s="204">
         <v>45089</v>
       </c>
-      <c r="C40" s="201">
+      <c r="C40" s="289">
         <v>1400</v>
       </c>
       <c r="D40" s="79" t="s">
@@ -14648,10 +14653,10 @@
       <c r="J40" s="68">
         <v>45101</v>
       </c>
-      <c r="K40" s="286" t="s">
+      <c r="K40" s="243" t="s">
         <v>80</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="290">
         <v>7540.96</v>
       </c>
       <c r="M40" s="30">
@@ -14676,7 +14681,7 @@
       <c r="B41" s="204">
         <v>45091</v>
       </c>
-      <c r="C41" s="201">
+      <c r="C41" s="289">
         <v>3650.5</v>
       </c>
       <c r="D41" s="79" t="s">
@@ -14693,7 +14698,7 @@
       <c r="K41" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="290">
         <v>686.43</v>
       </c>
       <c r="M41" s="30">
@@ -14718,7 +14723,7 @@
       <c r="B42" s="204">
         <v>45093</v>
       </c>
-      <c r="C42" s="201">
+      <c r="C42" s="289">
         <v>1000</v>
       </c>
       <c r="D42" s="79" t="s">
@@ -14732,10 +14737,12 @@
       <c r="J42" s="68">
         <v>45107</v>
       </c>
-      <c r="K42" s="287" t="s">
+      <c r="K42" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="L42" s="39"/>
+      <c r="L42" s="39">
+        <v>133.82</v>
+      </c>
       <c r="M42" s="30">
         <v>0</v>
       </c>
@@ -14758,7 +14765,7 @@
       <c r="B43" s="204">
         <v>45093</v>
       </c>
-      <c r="C43" s="201">
+      <c r="C43" s="289">
         <v>1020</v>
       </c>
       <c r="D43" s="79" t="s">
@@ -14794,7 +14801,7 @@
       <c r="B44" s="204">
         <v>45101</v>
       </c>
-      <c r="C44" s="201">
+      <c r="C44" s="289">
         <v>666.56</v>
       </c>
       <c r="D44" s="79" t="s">
@@ -14830,7 +14837,7 @@
       <c r="B45" s="204">
         <v>45101</v>
       </c>
-      <c r="C45" s="201">
+      <c r="C45" s="289">
         <v>2518.5</v>
       </c>
       <c r="D45" s="79" t="s">
@@ -14866,7 +14873,7 @@
       <c r="B46" s="204">
         <v>45105</v>
       </c>
-      <c r="C46" s="201">
+      <c r="C46" s="289">
         <v>338</v>
       </c>
       <c r="D46" s="79" t="s">
@@ -14902,7 +14909,7 @@
       <c r="B47" s="204">
         <v>45105</v>
       </c>
-      <c r="C47" s="201">
+      <c r="C47" s="289">
         <v>1441.45</v>
       </c>
       <c r="D47" s="79" t="s">
@@ -14938,7 +14945,7 @@
       <c r="B48" s="204">
         <v>45106</v>
       </c>
-      <c r="C48" s="201">
+      <c r="C48" s="289">
         <v>600</v>
       </c>
       <c r="D48" s="79" t="s">
@@ -14974,7 +14981,7 @@
       <c r="B49" s="204">
         <v>45106</v>
       </c>
-      <c r="C49" s="201">
+      <c r="C49" s="289">
         <v>510</v>
       </c>
       <c r="D49" s="79" t="s">
@@ -15213,11 +15220,11 @@
       <c r="J56" s="72"/>
       <c r="K56" s="99"/>
       <c r="L56" s="74"/>
-      <c r="M56" s="259">
+      <c r="M56" s="273">
         <f>SUM(M5:M48)</f>
         <v>32186</v>
       </c>
-      <c r="N56" s="268">
+      <c r="N56" s="252">
         <f>SUM(N5:N48)</f>
         <v>58977</v>
       </c>
@@ -15249,8 +15256,8 @@
       <c r="J57" s="72"/>
       <c r="K57" s="104"/>
       <c r="L57" s="74"/>
-      <c r="M57" s="260"/>
-      <c r="N57" s="269"/>
+      <c r="M57" s="274"/>
+      <c r="N57" s="253"/>
       <c r="P57" s="96"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="13">
@@ -15306,7 +15313,7 @@
       </c>
       <c r="L59" s="130">
         <f>SUM(L5:L58)</f>
-        <v>24569.73</v>
+        <v>24703.55</v>
       </c>
       <c r="M59" s="131"/>
       <c r="N59" s="131"/>
@@ -15324,32 +15331,32 @@
       <c r="A61" s="133"/>
       <c r="B61" s="134"/>
       <c r="C61" s="1"/>
-      <c r="H61" s="270" t="s">
+      <c r="H61" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="271"/>
+      <c r="I61" s="255"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="272">
+      <c r="K61" s="256">
         <f>I59+L59</f>
-        <v>29971.73</v>
-      </c>
-      <c r="L61" s="273"/>
-      <c r="M61" s="274">
+        <v>30105.55</v>
+      </c>
+      <c r="L61" s="257"/>
+      <c r="M61" s="258">
         <f>N56+M56</f>
         <v>91163</v>
       </c>
-      <c r="N61" s="275"/>
+      <c r="N61" s="259"/>
       <c r="P61" s="96"/>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="281"/>
+      <c r="E62" s="265"/>
       <c r="F62" s="136">
         <f>F59-K61-C59</f>
-        <v>50707.149999999994</v>
+        <v>50573.330000000016</v>
       </c>
       <c r="I62" s="137"/>
       <c r="J62" s="138"/>
@@ -15357,20 +15364,20 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D63" s="276"/>
-      <c r="E63" s="276"/>
+      <c r="D63" s="260"/>
+      <c r="E63" s="260"/>
       <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="277" t="s">
+      <c r="I63" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="278"/>
-      <c r="K63" s="279">
+      <c r="J63" s="262"/>
+      <c r="K63" s="263">
         <f>F65+F66+F67</f>
-        <v>50707.149999999994</v>
-      </c>
-      <c r="L63" s="280"/>
+        <v>50573.330000000016</v>
+      </c>
+      <c r="L63" s="264"/>
       <c r="P63" s="96"/>
       <c r="Q63" s="9"/>
     </row>
@@ -15394,18 +15401,18 @@
       </c>
       <c r="F65" s="131">
         <f>SUM(F62:F64)</f>
-        <v>50707.149999999994</v>
+        <v>50573.330000000016</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="146" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="147"/>
-      <c r="K65" s="261">
+      <c r="K65" s="245">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L65" s="262"/>
+      <c r="L65" s="246"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="221" t="s">
@@ -15418,22 +15425,22 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="150"/>
-      <c r="D67" s="263" t="s">
+      <c r="D67" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="264"/>
+      <c r="E67" s="248"/>
       <c r="F67" s="151">
         <v>0</v>
       </c>
-      <c r="I67" s="265" t="s">
+      <c r="I67" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="266"/>
-      <c r="K67" s="267">
+      <c r="J67" s="250"/>
+      <c r="K67" s="251">
         <f>K63+K65</f>
-        <v>50707.149999999994</v>
-      </c>
-      <c r="L67" s="267"/>
+        <v>50573.330000000016</v>
+      </c>
+      <c r="L67" s="251"/>
     </row>
     <row r="68" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C68" s="152"/>
@@ -15558,6 +15565,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15568,18 +15587,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:N61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15717,15 +15724,15 @@
       <c r="F21" s="187"/>
     </row>
     <row r="22" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="282" t="s">
+      <c r="D22" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="283"/>
+      <c r="E22" s="285"/>
       <c r="F22" s="188"/>
     </row>
     <row r="23" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="284"/>
-      <c r="E23" s="285"/>
+      <c r="D23" s="286"/>
+      <c r="E23" s="287"/>
       <c r="F23" s="188"/>
     </row>
     <row r="24" spans="3:6" ht="21" x14ac:dyDescent="0.35">
